--- a/shared/dictionary.xlsx
+++ b/shared/dictionary.xlsx
@@ -1,15 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\!\Other\sync\tssdk - working\shared\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="1" r:id="rId1"/>
@@ -25,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">skills!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">species!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215" count="215">
   <si>
     <t>en</t>
   </si>
@@ -666,42 +659,57 @@
   </si>
   <si>
     <t>Tiên Đoán Công Kích Tương Lai</t>
+  </si>
+  <si>
+    <t>Gerudo</t>
+  </si>
+  <si>
+    <t>Gerudo</t>
+  </si>
+  <si>
+    <t>ゲルド</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
+      <name val="Arimo"/>
       <sz val="11"/>
-      <name val="Arimo"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arimo"/>
       <sz val="11"/>
-      <name val="Arimo"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arimo"/>
     </font>
     <font>
+      <name val="Arimo"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <name val="Arimo"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -736,185 +744,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium15" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:E24" totalsRowShown="0">
-  <autoFilter ref="A1:E24"/>
-  <sortState ref="A2:E24">
-    <sortCondition ref="A1:A24"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="en"/>
-    <tableColumn id="2" name="jp"/>
-    <tableColumn id="3" name="jpRT"/>
-    <tableColumn id="4" name="tentativelyTranslated"/>
-    <tableColumn id="5" name="tranlated"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
-  <sortState ref="A2:E5">
-    <sortCondition ref="A1:A5"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="en"/>
-    <tableColumn id="2" name="jp"/>
-    <tableColumn id="3" name="jpRT"/>
-    <tableColumn id="4" name="tentativelyTranslated"/>
-    <tableColumn id="5" name="tranlated"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:E14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:E14"/>
-  <sortState ref="A2:E14">
-    <sortCondition ref="A1:A14"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="en" dataDxfId="11"/>
-    <tableColumn id="2" name="jp" dataDxfId="10"/>
-    <tableColumn id="3" name="jpRT" dataDxfId="9"/>
-    <tableColumn id="4" name="tentativelyTranslated" dataDxfId="8"/>
-    <tableColumn id="5" name="tranlated" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7"/>
-  <sortState ref="A2:E7">
-    <sortCondition ref="A1:A7"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="en"/>
-    <tableColumn id="2" name="jp"/>
-    <tableColumn id="3" name="jpRT"/>
-    <tableColumn id="4" name="tentativelyTranslated"/>
-    <tableColumn id="5" name="tranlated"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E25"/>
-  <sortState ref="A2:E25">
-    <sortCondition ref="A1:A25"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="en" dataDxfId="4"/>
-    <tableColumn id="2" name="jp" dataDxfId="3"/>
-    <tableColumn id="3" name="jpRT" dataDxfId="2"/>
-    <tableColumn id="4" name="tentativelyTranslated" dataDxfId="1"/>
-    <tableColumn id="5" name="tranlated" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,74 +831,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1094,21 +965,18 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1120,7 +988,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1170,74 +1038,320 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV24"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:IW25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A19">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9" customWidth="1"/>
   <cols>
-    <col min="1" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="1" customWidth="1"/>
-    <col min="8" max="256" width="17" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="20.625" style="1"/>
+    <col min="2" max="2" customWidth="1" width="20.625" style="1"/>
+    <col min="3" max="3" customWidth="1" width="20.625" style="1"/>
+    <col min="4" max="4" customWidth="1" width="21.5" style="1"/>
+    <col min="5" max="5" customWidth="1" width="20.625" style="1"/>
+    <col min="6" max="6" customWidth="1" width="8.75" style="1"/>
+    <col min="7" max="7" customWidth="1" width="8.75" style="1"/>
+    <col min="8" max="8" customWidth="1" width="17.0" style="1"/>
+    <col min="9" max="9" customWidth="1" width="17.0" style="1"/>
+    <col min="10" max="10" customWidth="1" width="17.0" style="1"/>
+    <col min="11" max="11" customWidth="1" width="17.0" style="1"/>
+    <col min="12" max="12" customWidth="1" width="17.0" style="1"/>
+    <col min="13" max="13" customWidth="1" width="17.0" style="1"/>
+    <col min="14" max="14" customWidth="1" width="17.0" style="1"/>
+    <col min="15" max="15" customWidth="1" width="17.0" style="1"/>
+    <col min="16" max="16" customWidth="1" width="17.0" style="1"/>
+    <col min="17" max="17" customWidth="1" width="17.0" style="1"/>
+    <col min="18" max="18" customWidth="1" width="17.0" style="1"/>
+    <col min="19" max="19" customWidth="1" width="17.0" style="1"/>
+    <col min="20" max="20" customWidth="1" width="17.0" style="1"/>
+    <col min="21" max="21" customWidth="1" width="17.0" style="1"/>
+    <col min="22" max="22" customWidth="1" width="17.0" style="1"/>
+    <col min="23" max="23" customWidth="1" width="17.0" style="1"/>
+    <col min="24" max="24" customWidth="1" width="17.0" style="1"/>
+    <col min="25" max="25" customWidth="1" width="17.0" style="1"/>
+    <col min="26" max="26" customWidth="1" width="17.0" style="1"/>
+    <col min="27" max="27" customWidth="1" width="17.0" style="1"/>
+    <col min="28" max="28" customWidth="1" width="17.0" style="1"/>
+    <col min="29" max="29" customWidth="1" width="17.0" style="1"/>
+    <col min="30" max="30" customWidth="1" width="17.0" style="1"/>
+    <col min="31" max="31" customWidth="1" width="17.0" style="1"/>
+    <col min="32" max="32" customWidth="1" width="17.0" style="1"/>
+    <col min="33" max="33" customWidth="1" width="17.0" style="1"/>
+    <col min="34" max="34" customWidth="1" width="17.0" style="1"/>
+    <col min="35" max="35" customWidth="1" width="17.0" style="1"/>
+    <col min="36" max="36" customWidth="1" width="17.0" style="1"/>
+    <col min="37" max="37" customWidth="1" width="17.0" style="1"/>
+    <col min="38" max="38" customWidth="1" width="17.0" style="1"/>
+    <col min="39" max="39" customWidth="1" width="17.0" style="1"/>
+    <col min="40" max="40" customWidth="1" width="17.0" style="1"/>
+    <col min="41" max="41" customWidth="1" width="17.0" style="1"/>
+    <col min="42" max="42" customWidth="1" width="17.0" style="1"/>
+    <col min="43" max="43" customWidth="1" width="17.0" style="1"/>
+    <col min="44" max="44" customWidth="1" width="17.0" style="1"/>
+    <col min="45" max="45" customWidth="1" width="17.0" style="1"/>
+    <col min="46" max="46" customWidth="1" width="17.0" style="1"/>
+    <col min="47" max="47" customWidth="1" width="17.0" style="1"/>
+    <col min="48" max="48" customWidth="1" width="17.0" style="1"/>
+    <col min="49" max="49" customWidth="1" width="17.0" style="1"/>
+    <col min="50" max="50" customWidth="1" width="17.0" style="1"/>
+    <col min="51" max="51" customWidth="1" width="17.0" style="1"/>
+    <col min="52" max="52" customWidth="1" width="17.0" style="1"/>
+    <col min="53" max="53" customWidth="1" width="17.0" style="1"/>
+    <col min="54" max="54" customWidth="1" width="17.0" style="1"/>
+    <col min="55" max="55" customWidth="1" width="17.0" style="1"/>
+    <col min="56" max="56" customWidth="1" width="17.0" style="1"/>
+    <col min="57" max="57" customWidth="1" width="17.0" style="1"/>
+    <col min="58" max="58" customWidth="1" width="17.0" style="1"/>
+    <col min="59" max="59" customWidth="1" width="17.0" style="1"/>
+    <col min="60" max="60" customWidth="1" width="17.0" style="1"/>
+    <col min="61" max="61" customWidth="1" width="17.0" style="1"/>
+    <col min="62" max="62" customWidth="1" width="17.0" style="1"/>
+    <col min="63" max="63" customWidth="1" width="17.0" style="1"/>
+    <col min="64" max="64" customWidth="1" width="17.0" style="1"/>
+    <col min="65" max="65" customWidth="1" width="17.0" style="1"/>
+    <col min="66" max="66" customWidth="1" width="17.0" style="1"/>
+    <col min="67" max="67" customWidth="1" width="17.0" style="1"/>
+    <col min="68" max="68" customWidth="1" width="17.0" style="1"/>
+    <col min="69" max="69" customWidth="1" width="17.0" style="1"/>
+    <col min="70" max="70" customWidth="1" width="17.0" style="1"/>
+    <col min="71" max="71" customWidth="1" width="17.0" style="1"/>
+    <col min="72" max="72" customWidth="1" width="17.0" style="1"/>
+    <col min="73" max="73" customWidth="1" width="17.0" style="1"/>
+    <col min="74" max="74" customWidth="1" width="17.0" style="1"/>
+    <col min="75" max="75" customWidth="1" width="17.0" style="1"/>
+    <col min="76" max="76" customWidth="1" width="17.0" style="1"/>
+    <col min="77" max="77" customWidth="1" width="17.0" style="1"/>
+    <col min="78" max="78" customWidth="1" width="17.0" style="1"/>
+    <col min="79" max="79" customWidth="1" width="17.0" style="1"/>
+    <col min="80" max="80" customWidth="1" width="17.0" style="1"/>
+    <col min="81" max="81" customWidth="1" width="17.0" style="1"/>
+    <col min="82" max="82" customWidth="1" width="17.0" style="1"/>
+    <col min="83" max="83" customWidth="1" width="17.0" style="1"/>
+    <col min="84" max="84" customWidth="1" width="17.0" style="1"/>
+    <col min="85" max="85" customWidth="1" width="17.0" style="1"/>
+    <col min="86" max="86" customWidth="1" width="17.0" style="1"/>
+    <col min="87" max="87" customWidth="1" width="17.0" style="1"/>
+    <col min="88" max="88" customWidth="1" width="17.0" style="1"/>
+    <col min="89" max="89" customWidth="1" width="17.0" style="1"/>
+    <col min="90" max="90" customWidth="1" width="17.0" style="1"/>
+    <col min="91" max="91" customWidth="1" width="17.0" style="1"/>
+    <col min="92" max="92" customWidth="1" width="17.0" style="1"/>
+    <col min="93" max="93" customWidth="1" width="17.0" style="1"/>
+    <col min="94" max="94" customWidth="1" width="17.0" style="1"/>
+    <col min="95" max="95" customWidth="1" width="17.0" style="1"/>
+    <col min="96" max="96" customWidth="1" width="17.0" style="1"/>
+    <col min="97" max="97" customWidth="1" width="17.0" style="1"/>
+    <col min="98" max="98" customWidth="1" width="17.0" style="1"/>
+    <col min="99" max="99" customWidth="1" width="17.0" style="1"/>
+    <col min="100" max="100" customWidth="1" width="17.0" style="1"/>
+    <col min="101" max="101" customWidth="1" width="17.0" style="1"/>
+    <col min="102" max="102" customWidth="1" width="17.0" style="1"/>
+    <col min="103" max="103" customWidth="1" width="17.0" style="1"/>
+    <col min="104" max="104" customWidth="1" width="17.0" style="1"/>
+    <col min="105" max="105" customWidth="1" width="17.0" style="1"/>
+    <col min="106" max="106" customWidth="1" width="17.0" style="1"/>
+    <col min="107" max="107" customWidth="1" width="17.0" style="1"/>
+    <col min="108" max="108" customWidth="1" width="17.0" style="1"/>
+    <col min="109" max="109" customWidth="1" width="17.0" style="1"/>
+    <col min="110" max="110" customWidth="1" width="17.0" style="1"/>
+    <col min="111" max="111" customWidth="1" width="17.0" style="1"/>
+    <col min="112" max="112" customWidth="1" width="17.0" style="1"/>
+    <col min="113" max="113" customWidth="1" width="17.0" style="1"/>
+    <col min="114" max="114" customWidth="1" width="17.0" style="1"/>
+    <col min="115" max="115" customWidth="1" width="17.0" style="1"/>
+    <col min="116" max="116" customWidth="1" width="17.0" style="1"/>
+    <col min="117" max="117" customWidth="1" width="17.0" style="1"/>
+    <col min="118" max="118" customWidth="1" width="17.0" style="1"/>
+    <col min="119" max="119" customWidth="1" width="17.0" style="1"/>
+    <col min="120" max="120" customWidth="1" width="17.0" style="1"/>
+    <col min="121" max="121" customWidth="1" width="17.0" style="1"/>
+    <col min="122" max="122" customWidth="1" width="17.0" style="1"/>
+    <col min="123" max="123" customWidth="1" width="17.0" style="1"/>
+    <col min="124" max="124" customWidth="1" width="17.0" style="1"/>
+    <col min="125" max="125" customWidth="1" width="17.0" style="1"/>
+    <col min="126" max="126" customWidth="1" width="17.0" style="1"/>
+    <col min="127" max="127" customWidth="1" width="17.0" style="1"/>
+    <col min="128" max="128" customWidth="1" width="17.0" style="1"/>
+    <col min="129" max="129" customWidth="1" width="17.0" style="1"/>
+    <col min="130" max="130" customWidth="1" width="17.0" style="1"/>
+    <col min="131" max="131" customWidth="1" width="17.0" style="1"/>
+    <col min="132" max="132" customWidth="1" width="17.0" style="1"/>
+    <col min="133" max="133" customWidth="1" width="17.0" style="1"/>
+    <col min="134" max="134" customWidth="1" width="17.0" style="1"/>
+    <col min="135" max="135" customWidth="1" width="17.0" style="1"/>
+    <col min="136" max="136" customWidth="1" width="17.0" style="1"/>
+    <col min="137" max="137" customWidth="1" width="17.0" style="1"/>
+    <col min="138" max="138" customWidth="1" width="17.0" style="1"/>
+    <col min="139" max="139" customWidth="1" width="17.0" style="1"/>
+    <col min="140" max="140" customWidth="1" width="17.0" style="1"/>
+    <col min="141" max="141" customWidth="1" width="17.0" style="1"/>
+    <col min="142" max="142" customWidth="1" width="17.0" style="1"/>
+    <col min="143" max="143" customWidth="1" width="17.0" style="1"/>
+    <col min="144" max="144" customWidth="1" width="17.0" style="1"/>
+    <col min="145" max="145" customWidth="1" width="17.0" style="1"/>
+    <col min="146" max="146" customWidth="1" width="17.0" style="1"/>
+    <col min="147" max="147" customWidth="1" width="17.0" style="1"/>
+    <col min="148" max="148" customWidth="1" width="17.0" style="1"/>
+    <col min="149" max="149" customWidth="1" width="17.0" style="1"/>
+    <col min="150" max="150" customWidth="1" width="17.0" style="1"/>
+    <col min="151" max="151" customWidth="1" width="17.0" style="1"/>
+    <col min="152" max="152" customWidth="1" width="17.0" style="1"/>
+    <col min="153" max="153" customWidth="1" width="17.0" style="1"/>
+    <col min="154" max="154" customWidth="1" width="17.0" style="1"/>
+    <col min="155" max="155" customWidth="1" width="17.0" style="1"/>
+    <col min="156" max="156" customWidth="1" width="17.0" style="1"/>
+    <col min="157" max="157" customWidth="1" width="17.0" style="1"/>
+    <col min="158" max="158" customWidth="1" width="17.0" style="1"/>
+    <col min="159" max="159" customWidth="1" width="17.0" style="1"/>
+    <col min="160" max="160" customWidth="1" width="17.0" style="1"/>
+    <col min="161" max="161" customWidth="1" width="17.0" style="1"/>
+    <col min="162" max="162" customWidth="1" width="17.0" style="1"/>
+    <col min="163" max="163" customWidth="1" width="17.0" style="1"/>
+    <col min="164" max="164" customWidth="1" width="17.0" style="1"/>
+    <col min="165" max="165" customWidth="1" width="17.0" style="1"/>
+    <col min="166" max="166" customWidth="1" width="17.0" style="1"/>
+    <col min="167" max="167" customWidth="1" width="17.0" style="1"/>
+    <col min="168" max="168" customWidth="1" width="17.0" style="1"/>
+    <col min="169" max="169" customWidth="1" width="17.0" style="1"/>
+    <col min="170" max="170" customWidth="1" width="17.0" style="1"/>
+    <col min="171" max="171" customWidth="1" width="17.0" style="1"/>
+    <col min="172" max="172" customWidth="1" width="17.0" style="1"/>
+    <col min="173" max="173" customWidth="1" width="17.0" style="1"/>
+    <col min="174" max="174" customWidth="1" width="17.0" style="1"/>
+    <col min="175" max="175" customWidth="1" width="17.0" style="1"/>
+    <col min="176" max="176" customWidth="1" width="17.0" style="1"/>
+    <col min="177" max="177" customWidth="1" width="17.0" style="1"/>
+    <col min="178" max="178" customWidth="1" width="17.0" style="1"/>
+    <col min="179" max="179" customWidth="1" width="17.0" style="1"/>
+    <col min="180" max="180" customWidth="1" width="17.0" style="1"/>
+    <col min="181" max="181" customWidth="1" width="17.0" style="1"/>
+    <col min="182" max="182" customWidth="1" width="17.0" style="1"/>
+    <col min="183" max="183" customWidth="1" width="17.0" style="1"/>
+    <col min="184" max="184" customWidth="1" width="17.0" style="1"/>
+    <col min="185" max="185" customWidth="1" width="17.0" style="1"/>
+    <col min="186" max="186" customWidth="1" width="17.0" style="1"/>
+    <col min="187" max="187" customWidth="1" width="17.0" style="1"/>
+    <col min="188" max="188" customWidth="1" width="17.0" style="1"/>
+    <col min="189" max="189" customWidth="1" width="17.0" style="1"/>
+    <col min="190" max="190" customWidth="1" width="17.0" style="1"/>
+    <col min="191" max="191" customWidth="1" width="17.0" style="1"/>
+    <col min="192" max="192" customWidth="1" width="17.0" style="1"/>
+    <col min="193" max="193" customWidth="1" width="17.0" style="1"/>
+    <col min="194" max="194" customWidth="1" width="17.0" style="1"/>
+    <col min="195" max="195" customWidth="1" width="17.0" style="1"/>
+    <col min="196" max="196" customWidth="1" width="17.0" style="1"/>
+    <col min="197" max="197" customWidth="1" width="17.0" style="1"/>
+    <col min="198" max="198" customWidth="1" width="17.0" style="1"/>
+    <col min="199" max="199" customWidth="1" width="17.0" style="1"/>
+    <col min="200" max="200" customWidth="1" width="17.0" style="1"/>
+    <col min="201" max="201" customWidth="1" width="17.0" style="1"/>
+    <col min="202" max="202" customWidth="1" width="17.0" style="1"/>
+    <col min="203" max="203" customWidth="1" width="17.0" style="1"/>
+    <col min="204" max="204" customWidth="1" width="17.0" style="1"/>
+    <col min="205" max="205" customWidth="1" width="17.0" style="1"/>
+    <col min="206" max="206" customWidth="1" width="17.0" style="1"/>
+    <col min="207" max="207" customWidth="1" width="17.0" style="1"/>
+    <col min="208" max="208" customWidth="1" width="17.0" style="1"/>
+    <col min="209" max="209" customWidth="1" width="17.0" style="1"/>
+    <col min="210" max="210" customWidth="1" width="17.0" style="1"/>
+    <col min="211" max="211" customWidth="1" width="17.0" style="1"/>
+    <col min="212" max="212" customWidth="1" width="17.0" style="1"/>
+    <col min="213" max="213" customWidth="1" width="17.0" style="1"/>
+    <col min="214" max="214" customWidth="1" width="17.0" style="1"/>
+    <col min="215" max="215" customWidth="1" width="17.0" style="1"/>
+    <col min="216" max="216" customWidth="1" width="17.0" style="1"/>
+    <col min="217" max="217" customWidth="1" width="17.0" style="1"/>
+    <col min="218" max="218" customWidth="1" width="17.0" style="1"/>
+    <col min="219" max="219" customWidth="1" width="17.0" style="1"/>
+    <col min="220" max="220" customWidth="1" width="17.0" style="1"/>
+    <col min="221" max="221" customWidth="1" width="17.0" style="1"/>
+    <col min="222" max="222" customWidth="1" width="17.0" style="1"/>
+    <col min="223" max="223" customWidth="1" width="17.0" style="1"/>
+    <col min="224" max="224" customWidth="1" width="17.0" style="1"/>
+    <col min="225" max="225" customWidth="1" width="17.0" style="1"/>
+    <col min="226" max="226" customWidth="1" width="17.0" style="1"/>
+    <col min="227" max="227" customWidth="1" width="17.0" style="1"/>
+    <col min="228" max="228" customWidth="1" width="17.0" style="1"/>
+    <col min="229" max="229" customWidth="1" width="17.0" style="1"/>
+    <col min="230" max="230" customWidth="1" width="17.0" style="1"/>
+    <col min="231" max="231" customWidth="1" width="17.0" style="1"/>
+    <col min="232" max="232" customWidth="1" width="17.0" style="1"/>
+    <col min="233" max="233" customWidth="1" width="17.0" style="1"/>
+    <col min="234" max="234" customWidth="1" width="17.0" style="1"/>
+    <col min="235" max="235" customWidth="1" width="17.0" style="1"/>
+    <col min="236" max="236" customWidth="1" width="17.0" style="1"/>
+    <col min="237" max="237" customWidth="1" width="17.0" style="1"/>
+    <col min="238" max="238" customWidth="1" width="17.0" style="1"/>
+    <col min="239" max="239" customWidth="1" width="17.0" style="1"/>
+    <col min="240" max="240" customWidth="1" width="17.0" style="1"/>
+    <col min="241" max="241" customWidth="1" width="17.0" style="1"/>
+    <col min="242" max="242" customWidth="1" width="17.0" style="1"/>
+    <col min="243" max="243" customWidth="1" width="17.0" style="1"/>
+    <col min="244" max="244" customWidth="1" width="17.0" style="1"/>
+    <col min="245" max="245" customWidth="1" width="17.0" style="1"/>
+    <col min="246" max="246" customWidth="1" width="17.0" style="1"/>
+    <col min="247" max="247" customWidth="1" width="17.0" style="1"/>
+    <col min="248" max="248" customWidth="1" width="17.0" style="1"/>
+    <col min="249" max="249" customWidth="1" width="17.0" style="1"/>
+    <col min="250" max="250" customWidth="1" width="17.0" style="1"/>
+    <col min="251" max="251" customWidth="1" width="17.0" style="1"/>
+    <col min="252" max="252" customWidth="1" width="17.0" style="1"/>
+    <col min="253" max="253" customWidth="1" width="17.0" style="1"/>
+    <col min="254" max="254" customWidth="1" width="17.0" style="1"/>
+    <col min="255" max="255" customWidth="1" width="17.0" style="1"/>
+    <col min="256" max="256" customWidth="1" width="17.0" style="1"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="8:8" s="2" ht="15.0" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="8:8">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="8:8">
+      <c r="A3" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="8:8">
       <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
@@ -1248,97 +1362,97 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="8:8">
+      <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="A6" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="8:8">
+      <c r="A7" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="8:8">
+      <c r="A8" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="8:8">
+      <c r="A9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="A12" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1351,44 +1465,44 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="8:8">
+      <c r="A13" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="8:8">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="8:8">
       <c r="A16" s="1" t="s">
         <v>188</v>
       </c>
@@ -1399,74 +1513,74 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="8:8">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="8:8">
       <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
@@ -1477,7 +1591,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="8:8">
       <c r="A23" s="1" t="s">
         <v>178</v>
       </c>
@@ -1488,7 +1602,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="8:8">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -1499,1051 +1613,2047 @@
         <v>147</v>
       </c>
     </row>
+    <row r="25" spans="8:8">
+      <c r="A25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:IV5"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:IW5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9" customWidth="1"/>
   <cols>
-    <col min="1" max="3" width="20.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="4" customWidth="1"/>
-    <col min="8" max="256" width="17" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="20.625" style="7"/>
+    <col min="2" max="2" customWidth="1" width="20.625" style="7"/>
+    <col min="3" max="3" customWidth="1" width="20.625" style="7"/>
+    <col min="4" max="4" customWidth="1" width="21.5" style="7"/>
+    <col min="5" max="5" customWidth="1" width="20.625" style="7"/>
+    <col min="6" max="6" customWidth="1" width="8.75" style="7"/>
+    <col min="7" max="7" customWidth="1" width="8.75" style="7"/>
+    <col min="8" max="8" customWidth="1" width="17.0" style="7"/>
+    <col min="9" max="9" customWidth="1" width="17.0" style="7"/>
+    <col min="10" max="10" customWidth="1" width="17.0" style="7"/>
+    <col min="11" max="11" customWidth="1" width="17.0" style="7"/>
+    <col min="12" max="12" customWidth="1" width="17.0" style="7"/>
+    <col min="13" max="13" customWidth="1" width="17.0" style="7"/>
+    <col min="14" max="14" customWidth="1" width="17.0" style="7"/>
+    <col min="15" max="15" customWidth="1" width="17.0" style="7"/>
+    <col min="16" max="16" customWidth="1" width="17.0" style="7"/>
+    <col min="17" max="17" customWidth="1" width="17.0" style="7"/>
+    <col min="18" max="18" customWidth="1" width="17.0" style="7"/>
+    <col min="19" max="19" customWidth="1" width="17.0" style="7"/>
+    <col min="20" max="20" customWidth="1" width="17.0" style="7"/>
+    <col min="21" max="21" customWidth="1" width="17.0" style="7"/>
+    <col min="22" max="22" customWidth="1" width="17.0" style="7"/>
+    <col min="23" max="23" customWidth="1" width="17.0" style="7"/>
+    <col min="24" max="24" customWidth="1" width="17.0" style="7"/>
+    <col min="25" max="25" customWidth="1" width="17.0" style="7"/>
+    <col min="26" max="26" customWidth="1" width="17.0" style="7"/>
+    <col min="27" max="27" customWidth="1" width="17.0" style="7"/>
+    <col min="28" max="28" customWidth="1" width="17.0" style="7"/>
+    <col min="29" max="29" customWidth="1" width="17.0" style="7"/>
+    <col min="30" max="30" customWidth="1" width="17.0" style="7"/>
+    <col min="31" max="31" customWidth="1" width="17.0" style="7"/>
+    <col min="32" max="32" customWidth="1" width="17.0" style="7"/>
+    <col min="33" max="33" customWidth="1" width="17.0" style="7"/>
+    <col min="34" max="34" customWidth="1" width="17.0" style="7"/>
+    <col min="35" max="35" customWidth="1" width="17.0" style="7"/>
+    <col min="36" max="36" customWidth="1" width="17.0" style="7"/>
+    <col min="37" max="37" customWidth="1" width="17.0" style="7"/>
+    <col min="38" max="38" customWidth="1" width="17.0" style="7"/>
+    <col min="39" max="39" customWidth="1" width="17.0" style="7"/>
+    <col min="40" max="40" customWidth="1" width="17.0" style="7"/>
+    <col min="41" max="41" customWidth="1" width="17.0" style="7"/>
+    <col min="42" max="42" customWidth="1" width="17.0" style="7"/>
+    <col min="43" max="43" customWidth="1" width="17.0" style="7"/>
+    <col min="44" max="44" customWidth="1" width="17.0" style="7"/>
+    <col min="45" max="45" customWidth="1" width="17.0" style="7"/>
+    <col min="46" max="46" customWidth="1" width="17.0" style="7"/>
+    <col min="47" max="47" customWidth="1" width="17.0" style="7"/>
+    <col min="48" max="48" customWidth="1" width="17.0" style="7"/>
+    <col min="49" max="49" customWidth="1" width="17.0" style="7"/>
+    <col min="50" max="50" customWidth="1" width="17.0" style="7"/>
+    <col min="51" max="51" customWidth="1" width="17.0" style="7"/>
+    <col min="52" max="52" customWidth="1" width="17.0" style="7"/>
+    <col min="53" max="53" customWidth="1" width="17.0" style="7"/>
+    <col min="54" max="54" customWidth="1" width="17.0" style="7"/>
+    <col min="55" max="55" customWidth="1" width="17.0" style="7"/>
+    <col min="56" max="56" customWidth="1" width="17.0" style="7"/>
+    <col min="57" max="57" customWidth="1" width="17.0" style="7"/>
+    <col min="58" max="58" customWidth="1" width="17.0" style="7"/>
+    <col min="59" max="59" customWidth="1" width="17.0" style="7"/>
+    <col min="60" max="60" customWidth="1" width="17.0" style="7"/>
+    <col min="61" max="61" customWidth="1" width="17.0" style="7"/>
+    <col min="62" max="62" customWidth="1" width="17.0" style="7"/>
+    <col min="63" max="63" customWidth="1" width="17.0" style="7"/>
+    <col min="64" max="64" customWidth="1" width="17.0" style="7"/>
+    <col min="65" max="65" customWidth="1" width="17.0" style="7"/>
+    <col min="66" max="66" customWidth="1" width="17.0" style="7"/>
+    <col min="67" max="67" customWidth="1" width="17.0" style="7"/>
+    <col min="68" max="68" customWidth="1" width="17.0" style="7"/>
+    <col min="69" max="69" customWidth="1" width="17.0" style="7"/>
+    <col min="70" max="70" customWidth="1" width="17.0" style="7"/>
+    <col min="71" max="71" customWidth="1" width="17.0" style="7"/>
+    <col min="72" max="72" customWidth="1" width="17.0" style="7"/>
+    <col min="73" max="73" customWidth="1" width="17.0" style="7"/>
+    <col min="74" max="74" customWidth="1" width="17.0" style="7"/>
+    <col min="75" max="75" customWidth="1" width="17.0" style="7"/>
+    <col min="76" max="76" customWidth="1" width="17.0" style="7"/>
+    <col min="77" max="77" customWidth="1" width="17.0" style="7"/>
+    <col min="78" max="78" customWidth="1" width="17.0" style="7"/>
+    <col min="79" max="79" customWidth="1" width="17.0" style="7"/>
+    <col min="80" max="80" customWidth="1" width="17.0" style="7"/>
+    <col min="81" max="81" customWidth="1" width="17.0" style="7"/>
+    <col min="82" max="82" customWidth="1" width="17.0" style="7"/>
+    <col min="83" max="83" customWidth="1" width="17.0" style="7"/>
+    <col min="84" max="84" customWidth="1" width="17.0" style="7"/>
+    <col min="85" max="85" customWidth="1" width="17.0" style="7"/>
+    <col min="86" max="86" customWidth="1" width="17.0" style="7"/>
+    <col min="87" max="87" customWidth="1" width="17.0" style="7"/>
+    <col min="88" max="88" customWidth="1" width="17.0" style="7"/>
+    <col min="89" max="89" customWidth="1" width="17.0" style="7"/>
+    <col min="90" max="90" customWidth="1" width="17.0" style="7"/>
+    <col min="91" max="91" customWidth="1" width="17.0" style="7"/>
+    <col min="92" max="92" customWidth="1" width="17.0" style="7"/>
+    <col min="93" max="93" customWidth="1" width="17.0" style="7"/>
+    <col min="94" max="94" customWidth="1" width="17.0" style="7"/>
+    <col min="95" max="95" customWidth="1" width="17.0" style="7"/>
+    <col min="96" max="96" customWidth="1" width="17.0" style="7"/>
+    <col min="97" max="97" customWidth="1" width="17.0" style="7"/>
+    <col min="98" max="98" customWidth="1" width="17.0" style="7"/>
+    <col min="99" max="99" customWidth="1" width="17.0" style="7"/>
+    <col min="100" max="100" customWidth="1" width="17.0" style="7"/>
+    <col min="101" max="101" customWidth="1" width="17.0" style="7"/>
+    <col min="102" max="102" customWidth="1" width="17.0" style="7"/>
+    <col min="103" max="103" customWidth="1" width="17.0" style="7"/>
+    <col min="104" max="104" customWidth="1" width="17.0" style="7"/>
+    <col min="105" max="105" customWidth="1" width="17.0" style="7"/>
+    <col min="106" max="106" customWidth="1" width="17.0" style="7"/>
+    <col min="107" max="107" customWidth="1" width="17.0" style="7"/>
+    <col min="108" max="108" customWidth="1" width="17.0" style="7"/>
+    <col min="109" max="109" customWidth="1" width="17.0" style="7"/>
+    <col min="110" max="110" customWidth="1" width="17.0" style="7"/>
+    <col min="111" max="111" customWidth="1" width="17.0" style="7"/>
+    <col min="112" max="112" customWidth="1" width="17.0" style="7"/>
+    <col min="113" max="113" customWidth="1" width="17.0" style="7"/>
+    <col min="114" max="114" customWidth="1" width="17.0" style="7"/>
+    <col min="115" max="115" customWidth="1" width="17.0" style="7"/>
+    <col min="116" max="116" customWidth="1" width="17.0" style="7"/>
+    <col min="117" max="117" customWidth="1" width="17.0" style="7"/>
+    <col min="118" max="118" customWidth="1" width="17.0" style="7"/>
+    <col min="119" max="119" customWidth="1" width="17.0" style="7"/>
+    <col min="120" max="120" customWidth="1" width="17.0" style="7"/>
+    <col min="121" max="121" customWidth="1" width="17.0" style="7"/>
+    <col min="122" max="122" customWidth="1" width="17.0" style="7"/>
+    <col min="123" max="123" customWidth="1" width="17.0" style="7"/>
+    <col min="124" max="124" customWidth="1" width="17.0" style="7"/>
+    <col min="125" max="125" customWidth="1" width="17.0" style="7"/>
+    <col min="126" max="126" customWidth="1" width="17.0" style="7"/>
+    <col min="127" max="127" customWidth="1" width="17.0" style="7"/>
+    <col min="128" max="128" customWidth="1" width="17.0" style="7"/>
+    <col min="129" max="129" customWidth="1" width="17.0" style="7"/>
+    <col min="130" max="130" customWidth="1" width="17.0" style="7"/>
+    <col min="131" max="131" customWidth="1" width="17.0" style="7"/>
+    <col min="132" max="132" customWidth="1" width="17.0" style="7"/>
+    <col min="133" max="133" customWidth="1" width="17.0" style="7"/>
+    <col min="134" max="134" customWidth="1" width="17.0" style="7"/>
+    <col min="135" max="135" customWidth="1" width="17.0" style="7"/>
+    <col min="136" max="136" customWidth="1" width="17.0" style="7"/>
+    <col min="137" max="137" customWidth="1" width="17.0" style="7"/>
+    <col min="138" max="138" customWidth="1" width="17.0" style="7"/>
+    <col min="139" max="139" customWidth="1" width="17.0" style="7"/>
+    <col min="140" max="140" customWidth="1" width="17.0" style="7"/>
+    <col min="141" max="141" customWidth="1" width="17.0" style="7"/>
+    <col min="142" max="142" customWidth="1" width="17.0" style="7"/>
+    <col min="143" max="143" customWidth="1" width="17.0" style="7"/>
+    <col min="144" max="144" customWidth="1" width="17.0" style="7"/>
+    <col min="145" max="145" customWidth="1" width="17.0" style="7"/>
+    <col min="146" max="146" customWidth="1" width="17.0" style="7"/>
+    <col min="147" max="147" customWidth="1" width="17.0" style="7"/>
+    <col min="148" max="148" customWidth="1" width="17.0" style="7"/>
+    <col min="149" max="149" customWidth="1" width="17.0" style="7"/>
+    <col min="150" max="150" customWidth="1" width="17.0" style="7"/>
+    <col min="151" max="151" customWidth="1" width="17.0" style="7"/>
+    <col min="152" max="152" customWidth="1" width="17.0" style="7"/>
+    <col min="153" max="153" customWidth="1" width="17.0" style="7"/>
+    <col min="154" max="154" customWidth="1" width="17.0" style="7"/>
+    <col min="155" max="155" customWidth="1" width="17.0" style="7"/>
+    <col min="156" max="156" customWidth="1" width="17.0" style="7"/>
+    <col min="157" max="157" customWidth="1" width="17.0" style="7"/>
+    <col min="158" max="158" customWidth="1" width="17.0" style="7"/>
+    <col min="159" max="159" customWidth="1" width="17.0" style="7"/>
+    <col min="160" max="160" customWidth="1" width="17.0" style="7"/>
+    <col min="161" max="161" customWidth="1" width="17.0" style="7"/>
+    <col min="162" max="162" customWidth="1" width="17.0" style="7"/>
+    <col min="163" max="163" customWidth="1" width="17.0" style="7"/>
+    <col min="164" max="164" customWidth="1" width="17.0" style="7"/>
+    <col min="165" max="165" customWidth="1" width="17.0" style="7"/>
+    <col min="166" max="166" customWidth="1" width="17.0" style="7"/>
+    <col min="167" max="167" customWidth="1" width="17.0" style="7"/>
+    <col min="168" max="168" customWidth="1" width="17.0" style="7"/>
+    <col min="169" max="169" customWidth="1" width="17.0" style="7"/>
+    <col min="170" max="170" customWidth="1" width="17.0" style="7"/>
+    <col min="171" max="171" customWidth="1" width="17.0" style="7"/>
+    <col min="172" max="172" customWidth="1" width="17.0" style="7"/>
+    <col min="173" max="173" customWidth="1" width="17.0" style="7"/>
+    <col min="174" max="174" customWidth="1" width="17.0" style="7"/>
+    <col min="175" max="175" customWidth="1" width="17.0" style="7"/>
+    <col min="176" max="176" customWidth="1" width="17.0" style="7"/>
+    <col min="177" max="177" customWidth="1" width="17.0" style="7"/>
+    <col min="178" max="178" customWidth="1" width="17.0" style="7"/>
+    <col min="179" max="179" customWidth="1" width="17.0" style="7"/>
+    <col min="180" max="180" customWidth="1" width="17.0" style="7"/>
+    <col min="181" max="181" customWidth="1" width="17.0" style="7"/>
+    <col min="182" max="182" customWidth="1" width="17.0" style="7"/>
+    <col min="183" max="183" customWidth="1" width="17.0" style="7"/>
+    <col min="184" max="184" customWidth="1" width="17.0" style="7"/>
+    <col min="185" max="185" customWidth="1" width="17.0" style="7"/>
+    <col min="186" max="186" customWidth="1" width="17.0" style="7"/>
+    <col min="187" max="187" customWidth="1" width="17.0" style="7"/>
+    <col min="188" max="188" customWidth="1" width="17.0" style="7"/>
+    <col min="189" max="189" customWidth="1" width="17.0" style="7"/>
+    <col min="190" max="190" customWidth="1" width="17.0" style="7"/>
+    <col min="191" max="191" customWidth="1" width="17.0" style="7"/>
+    <col min="192" max="192" customWidth="1" width="17.0" style="7"/>
+    <col min="193" max="193" customWidth="1" width="17.0" style="7"/>
+    <col min="194" max="194" customWidth="1" width="17.0" style="7"/>
+    <col min="195" max="195" customWidth="1" width="17.0" style="7"/>
+    <col min="196" max="196" customWidth="1" width="17.0" style="7"/>
+    <col min="197" max="197" customWidth="1" width="17.0" style="7"/>
+    <col min="198" max="198" customWidth="1" width="17.0" style="7"/>
+    <col min="199" max="199" customWidth="1" width="17.0" style="7"/>
+    <col min="200" max="200" customWidth="1" width="17.0" style="7"/>
+    <col min="201" max="201" customWidth="1" width="17.0" style="7"/>
+    <col min="202" max="202" customWidth="1" width="17.0" style="7"/>
+    <col min="203" max="203" customWidth="1" width="17.0" style="7"/>
+    <col min="204" max="204" customWidth="1" width="17.0" style="7"/>
+    <col min="205" max="205" customWidth="1" width="17.0" style="7"/>
+    <col min="206" max="206" customWidth="1" width="17.0" style="7"/>
+    <col min="207" max="207" customWidth="1" width="17.0" style="7"/>
+    <col min="208" max="208" customWidth="1" width="17.0" style="7"/>
+    <col min="209" max="209" customWidth="1" width="17.0" style="7"/>
+    <col min="210" max="210" customWidth="1" width="17.0" style="7"/>
+    <col min="211" max="211" customWidth="1" width="17.0" style="7"/>
+    <col min="212" max="212" customWidth="1" width="17.0" style="7"/>
+    <col min="213" max="213" customWidth="1" width="17.0" style="7"/>
+    <col min="214" max="214" customWidth="1" width="17.0" style="7"/>
+    <col min="215" max="215" customWidth="1" width="17.0" style="7"/>
+    <col min="216" max="216" customWidth="1" width="17.0" style="7"/>
+    <col min="217" max="217" customWidth="1" width="17.0" style="7"/>
+    <col min="218" max="218" customWidth="1" width="17.0" style="7"/>
+    <col min="219" max="219" customWidth="1" width="17.0" style="7"/>
+    <col min="220" max="220" customWidth="1" width="17.0" style="7"/>
+    <col min="221" max="221" customWidth="1" width="17.0" style="7"/>
+    <col min="222" max="222" customWidth="1" width="17.0" style="7"/>
+    <col min="223" max="223" customWidth="1" width="17.0" style="7"/>
+    <col min="224" max="224" customWidth="1" width="17.0" style="7"/>
+    <col min="225" max="225" customWidth="1" width="17.0" style="7"/>
+    <col min="226" max="226" customWidth="1" width="17.0" style="7"/>
+    <col min="227" max="227" customWidth="1" width="17.0" style="7"/>
+    <col min="228" max="228" customWidth="1" width="17.0" style="7"/>
+    <col min="229" max="229" customWidth="1" width="17.0" style="7"/>
+    <col min="230" max="230" customWidth="1" width="17.0" style="7"/>
+    <col min="231" max="231" customWidth="1" width="17.0" style="7"/>
+    <col min="232" max="232" customWidth="1" width="17.0" style="7"/>
+    <col min="233" max="233" customWidth="1" width="17.0" style="7"/>
+    <col min="234" max="234" customWidth="1" width="17.0" style="7"/>
+    <col min="235" max="235" customWidth="1" width="17.0" style="7"/>
+    <col min="236" max="236" customWidth="1" width="17.0" style="7"/>
+    <col min="237" max="237" customWidth="1" width="17.0" style="7"/>
+    <col min="238" max="238" customWidth="1" width="17.0" style="7"/>
+    <col min="239" max="239" customWidth="1" width="17.0" style="7"/>
+    <col min="240" max="240" customWidth="1" width="17.0" style="7"/>
+    <col min="241" max="241" customWidth="1" width="17.0" style="7"/>
+    <col min="242" max="242" customWidth="1" width="17.0" style="7"/>
+    <col min="243" max="243" customWidth="1" width="17.0" style="7"/>
+    <col min="244" max="244" customWidth="1" width="17.0" style="7"/>
+    <col min="245" max="245" customWidth="1" width="17.0" style="7"/>
+    <col min="246" max="246" customWidth="1" width="17.0" style="7"/>
+    <col min="247" max="247" customWidth="1" width="17.0" style="7"/>
+    <col min="248" max="248" customWidth="1" width="17.0" style="7"/>
+    <col min="249" max="249" customWidth="1" width="17.0" style="7"/>
+    <col min="250" max="250" customWidth="1" width="17.0" style="7"/>
+    <col min="251" max="251" customWidth="1" width="17.0" style="7"/>
+    <col min="252" max="252" customWidth="1" width="17.0" style="7"/>
+    <col min="253" max="253" customWidth="1" width="17.0" style="7"/>
+    <col min="254" max="254" customWidth="1" width="17.0" style="7"/>
+    <col min="255" max="255" customWidth="1" width="17.0" style="7"/>
+    <col min="256" max="256" customWidth="1" width="17.0" style="7"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="8:8" s="2" ht="15.0" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="8:8">
+      <c r="A2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="8:8">
+      <c r="A3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="A5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0" topLeftCell="D1">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9" customWidth="1"/>
   <cols>
-    <col min="1" max="3" width="20.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="13" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="12" customWidth="1"/>
-    <col min="8" max="256" width="17" style="12" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="12"/>
+    <col min="1" max="1" customWidth="1" width="20.625" style="10"/>
+    <col min="2" max="2" customWidth="1" width="20.625" style="10"/>
+    <col min="3" max="3" customWidth="1" width="20.625" style="10"/>
+    <col min="4" max="4" customWidth="1" width="21.5" style="10"/>
+    <col min="5" max="5" customWidth="1" width="20.625" style="10"/>
+    <col min="6" max="6" customWidth="1" width="8.75" style="11"/>
+    <col min="7" max="7" customWidth="1" width="8.75" style="11"/>
+    <col min="8" max="8" customWidth="1" width="17.0" style="11"/>
+    <col min="9" max="9" customWidth="1" width="17.0" style="11"/>
+    <col min="10" max="10" customWidth="1" width="17.0" style="11"/>
+    <col min="11" max="11" customWidth="1" width="17.0" style="11"/>
+    <col min="12" max="12" customWidth="1" width="17.0" style="11"/>
+    <col min="13" max="13" customWidth="1" width="17.0" style="11"/>
+    <col min="14" max="14" customWidth="1" width="17.0" style="11"/>
+    <col min="15" max="15" customWidth="1" width="17.0" style="11"/>
+    <col min="16" max="16" customWidth="1" width="17.0" style="11"/>
+    <col min="17" max="17" customWidth="1" width="17.0" style="11"/>
+    <col min="18" max="18" customWidth="1" width="17.0" style="11"/>
+    <col min="19" max="19" customWidth="1" width="17.0" style="11"/>
+    <col min="20" max="20" customWidth="1" width="17.0" style="11"/>
+    <col min="21" max="21" customWidth="1" width="17.0" style="11"/>
+    <col min="22" max="22" customWidth="1" width="17.0" style="11"/>
+    <col min="23" max="23" customWidth="1" width="17.0" style="11"/>
+    <col min="24" max="24" customWidth="1" width="17.0" style="11"/>
+    <col min="25" max="25" customWidth="1" width="17.0" style="11"/>
+    <col min="26" max="26" customWidth="1" width="17.0" style="11"/>
+    <col min="27" max="27" customWidth="1" width="17.0" style="11"/>
+    <col min="28" max="28" customWidth="1" width="17.0" style="11"/>
+    <col min="29" max="29" customWidth="1" width="17.0" style="11"/>
+    <col min="30" max="30" customWidth="1" width="17.0" style="11"/>
+    <col min="31" max="31" customWidth="1" width="17.0" style="11"/>
+    <col min="32" max="32" customWidth="1" width="17.0" style="11"/>
+    <col min="33" max="33" customWidth="1" width="17.0" style="11"/>
+    <col min="34" max="34" customWidth="1" width="17.0" style="11"/>
+    <col min="35" max="35" customWidth="1" width="17.0" style="11"/>
+    <col min="36" max="36" customWidth="1" width="17.0" style="11"/>
+    <col min="37" max="37" customWidth="1" width="17.0" style="11"/>
+    <col min="38" max="38" customWidth="1" width="17.0" style="11"/>
+    <col min="39" max="39" customWidth="1" width="17.0" style="11"/>
+    <col min="40" max="40" customWidth="1" width="17.0" style="11"/>
+    <col min="41" max="41" customWidth="1" width="17.0" style="11"/>
+    <col min="42" max="42" customWidth="1" width="17.0" style="11"/>
+    <col min="43" max="43" customWidth="1" width="17.0" style="11"/>
+    <col min="44" max="44" customWidth="1" width="17.0" style="11"/>
+    <col min="45" max="45" customWidth="1" width="17.0" style="11"/>
+    <col min="46" max="46" customWidth="1" width="17.0" style="11"/>
+    <col min="47" max="47" customWidth="1" width="17.0" style="11"/>
+    <col min="48" max="48" customWidth="1" width="17.0" style="11"/>
+    <col min="49" max="49" customWidth="1" width="17.0" style="11"/>
+    <col min="50" max="50" customWidth="1" width="17.0" style="11"/>
+    <col min="51" max="51" customWidth="1" width="17.0" style="11"/>
+    <col min="52" max="52" customWidth="1" width="17.0" style="11"/>
+    <col min="53" max="53" customWidth="1" width="17.0" style="11"/>
+    <col min="54" max="54" customWidth="1" width="17.0" style="11"/>
+    <col min="55" max="55" customWidth="1" width="17.0" style="11"/>
+    <col min="56" max="56" customWidth="1" width="17.0" style="11"/>
+    <col min="57" max="57" customWidth="1" width="17.0" style="11"/>
+    <col min="58" max="58" customWidth="1" width="17.0" style="11"/>
+    <col min="59" max="59" customWidth="1" width="17.0" style="11"/>
+    <col min="60" max="60" customWidth="1" width="17.0" style="11"/>
+    <col min="61" max="61" customWidth="1" width="17.0" style="11"/>
+    <col min="62" max="62" customWidth="1" width="17.0" style="11"/>
+    <col min="63" max="63" customWidth="1" width="17.0" style="11"/>
+    <col min="64" max="64" customWidth="1" width="17.0" style="11"/>
+    <col min="65" max="65" customWidth="1" width="17.0" style="11"/>
+    <col min="66" max="66" customWidth="1" width="17.0" style="11"/>
+    <col min="67" max="67" customWidth="1" width="17.0" style="11"/>
+    <col min="68" max="68" customWidth="1" width="17.0" style="11"/>
+    <col min="69" max="69" customWidth="1" width="17.0" style="11"/>
+    <col min="70" max="70" customWidth="1" width="17.0" style="11"/>
+    <col min="71" max="71" customWidth="1" width="17.0" style="11"/>
+    <col min="72" max="72" customWidth="1" width="17.0" style="11"/>
+    <col min="73" max="73" customWidth="1" width="17.0" style="11"/>
+    <col min="74" max="74" customWidth="1" width="17.0" style="11"/>
+    <col min="75" max="75" customWidth="1" width="17.0" style="11"/>
+    <col min="76" max="76" customWidth="1" width="17.0" style="11"/>
+    <col min="77" max="77" customWidth="1" width="17.0" style="11"/>
+    <col min="78" max="78" customWidth="1" width="17.0" style="11"/>
+    <col min="79" max="79" customWidth="1" width="17.0" style="11"/>
+    <col min="80" max="80" customWidth="1" width="17.0" style="11"/>
+    <col min="81" max="81" customWidth="1" width="17.0" style="11"/>
+    <col min="82" max="82" customWidth="1" width="17.0" style="11"/>
+    <col min="83" max="83" customWidth="1" width="17.0" style="11"/>
+    <col min="84" max="84" customWidth="1" width="17.0" style="11"/>
+    <col min="85" max="85" customWidth="1" width="17.0" style="11"/>
+    <col min="86" max="86" customWidth="1" width="17.0" style="11"/>
+    <col min="87" max="87" customWidth="1" width="17.0" style="11"/>
+    <col min="88" max="88" customWidth="1" width="17.0" style="11"/>
+    <col min="89" max="89" customWidth="1" width="17.0" style="11"/>
+    <col min="90" max="90" customWidth="1" width="17.0" style="11"/>
+    <col min="91" max="91" customWidth="1" width="17.0" style="11"/>
+    <col min="92" max="92" customWidth="1" width="17.0" style="11"/>
+    <col min="93" max="93" customWidth="1" width="17.0" style="11"/>
+    <col min="94" max="94" customWidth="1" width="17.0" style="11"/>
+    <col min="95" max="95" customWidth="1" width="17.0" style="11"/>
+    <col min="96" max="96" customWidth="1" width="17.0" style="11"/>
+    <col min="97" max="97" customWidth="1" width="17.0" style="11"/>
+    <col min="98" max="98" customWidth="1" width="17.0" style="11"/>
+    <col min="99" max="99" customWidth="1" width="17.0" style="11"/>
+    <col min="100" max="100" customWidth="1" width="17.0" style="11"/>
+    <col min="101" max="101" customWidth="1" width="17.0" style="11"/>
+    <col min="102" max="102" customWidth="1" width="17.0" style="11"/>
+    <col min="103" max="103" customWidth="1" width="17.0" style="11"/>
+    <col min="104" max="104" customWidth="1" width="17.0" style="11"/>
+    <col min="105" max="105" customWidth="1" width="17.0" style="11"/>
+    <col min="106" max="106" customWidth="1" width="17.0" style="11"/>
+    <col min="107" max="107" customWidth="1" width="17.0" style="11"/>
+    <col min="108" max="108" customWidth="1" width="17.0" style="11"/>
+    <col min="109" max="109" customWidth="1" width="17.0" style="11"/>
+    <col min="110" max="110" customWidth="1" width="17.0" style="11"/>
+    <col min="111" max="111" customWidth="1" width="17.0" style="11"/>
+    <col min="112" max="112" customWidth="1" width="17.0" style="11"/>
+    <col min="113" max="113" customWidth="1" width="17.0" style="11"/>
+    <col min="114" max="114" customWidth="1" width="17.0" style="11"/>
+    <col min="115" max="115" customWidth="1" width="17.0" style="11"/>
+    <col min="116" max="116" customWidth="1" width="17.0" style="11"/>
+    <col min="117" max="117" customWidth="1" width="17.0" style="11"/>
+    <col min="118" max="118" customWidth="1" width="17.0" style="11"/>
+    <col min="119" max="119" customWidth="1" width="17.0" style="11"/>
+    <col min="120" max="120" customWidth="1" width="17.0" style="11"/>
+    <col min="121" max="121" customWidth="1" width="17.0" style="11"/>
+    <col min="122" max="122" customWidth="1" width="17.0" style="11"/>
+    <col min="123" max="123" customWidth="1" width="17.0" style="11"/>
+    <col min="124" max="124" customWidth="1" width="17.0" style="11"/>
+    <col min="125" max="125" customWidth="1" width="17.0" style="11"/>
+    <col min="126" max="126" customWidth="1" width="17.0" style="11"/>
+    <col min="127" max="127" customWidth="1" width="17.0" style="11"/>
+    <col min="128" max="128" customWidth="1" width="17.0" style="11"/>
+    <col min="129" max="129" customWidth="1" width="17.0" style="11"/>
+    <col min="130" max="130" customWidth="1" width="17.0" style="11"/>
+    <col min="131" max="131" customWidth="1" width="17.0" style="11"/>
+    <col min="132" max="132" customWidth="1" width="17.0" style="11"/>
+    <col min="133" max="133" customWidth="1" width="17.0" style="11"/>
+    <col min="134" max="134" customWidth="1" width="17.0" style="11"/>
+    <col min="135" max="135" customWidth="1" width="17.0" style="11"/>
+    <col min="136" max="136" customWidth="1" width="17.0" style="11"/>
+    <col min="137" max="137" customWidth="1" width="17.0" style="11"/>
+    <col min="138" max="138" customWidth="1" width="17.0" style="11"/>
+    <col min="139" max="139" customWidth="1" width="17.0" style="11"/>
+    <col min="140" max="140" customWidth="1" width="17.0" style="11"/>
+    <col min="141" max="141" customWidth="1" width="17.0" style="11"/>
+    <col min="142" max="142" customWidth="1" width="17.0" style="11"/>
+    <col min="143" max="143" customWidth="1" width="17.0" style="11"/>
+    <col min="144" max="144" customWidth="1" width="17.0" style="11"/>
+    <col min="145" max="145" customWidth="1" width="17.0" style="11"/>
+    <col min="146" max="146" customWidth="1" width="17.0" style="11"/>
+    <col min="147" max="147" customWidth="1" width="17.0" style="11"/>
+    <col min="148" max="148" customWidth="1" width="17.0" style="11"/>
+    <col min="149" max="149" customWidth="1" width="17.0" style="11"/>
+    <col min="150" max="150" customWidth="1" width="17.0" style="11"/>
+    <col min="151" max="151" customWidth="1" width="17.0" style="11"/>
+    <col min="152" max="152" customWidth="1" width="17.0" style="11"/>
+    <col min="153" max="153" customWidth="1" width="17.0" style="11"/>
+    <col min="154" max="154" customWidth="1" width="17.0" style="11"/>
+    <col min="155" max="155" customWidth="1" width="17.0" style="11"/>
+    <col min="156" max="156" customWidth="1" width="17.0" style="11"/>
+    <col min="157" max="157" customWidth="1" width="17.0" style="11"/>
+    <col min="158" max="158" customWidth="1" width="17.0" style="11"/>
+    <col min="159" max="159" customWidth="1" width="17.0" style="11"/>
+    <col min="160" max="160" customWidth="1" width="17.0" style="11"/>
+    <col min="161" max="161" customWidth="1" width="17.0" style="11"/>
+    <col min="162" max="162" customWidth="1" width="17.0" style="11"/>
+    <col min="163" max="163" customWidth="1" width="17.0" style="11"/>
+    <col min="164" max="164" customWidth="1" width="17.0" style="11"/>
+    <col min="165" max="165" customWidth="1" width="17.0" style="11"/>
+    <col min="166" max="166" customWidth="1" width="17.0" style="11"/>
+    <col min="167" max="167" customWidth="1" width="17.0" style="11"/>
+    <col min="168" max="168" customWidth="1" width="17.0" style="11"/>
+    <col min="169" max="169" customWidth="1" width="17.0" style="11"/>
+    <col min="170" max="170" customWidth="1" width="17.0" style="11"/>
+    <col min="171" max="171" customWidth="1" width="17.0" style="11"/>
+    <col min="172" max="172" customWidth="1" width="17.0" style="11"/>
+    <col min="173" max="173" customWidth="1" width="17.0" style="11"/>
+    <col min="174" max="174" customWidth="1" width="17.0" style="11"/>
+    <col min="175" max="175" customWidth="1" width="17.0" style="11"/>
+    <col min="176" max="176" customWidth="1" width="17.0" style="11"/>
+    <col min="177" max="177" customWidth="1" width="17.0" style="11"/>
+    <col min="178" max="178" customWidth="1" width="17.0" style="11"/>
+    <col min="179" max="179" customWidth="1" width="17.0" style="11"/>
+    <col min="180" max="180" customWidth="1" width="17.0" style="11"/>
+    <col min="181" max="181" customWidth="1" width="17.0" style="11"/>
+    <col min="182" max="182" customWidth="1" width="17.0" style="11"/>
+    <col min="183" max="183" customWidth="1" width="17.0" style="11"/>
+    <col min="184" max="184" customWidth="1" width="17.0" style="11"/>
+    <col min="185" max="185" customWidth="1" width="17.0" style="11"/>
+    <col min="186" max="186" customWidth="1" width="17.0" style="11"/>
+    <col min="187" max="187" customWidth="1" width="17.0" style="11"/>
+    <col min="188" max="188" customWidth="1" width="17.0" style="11"/>
+    <col min="189" max="189" customWidth="1" width="17.0" style="11"/>
+    <col min="190" max="190" customWidth="1" width="17.0" style="11"/>
+    <col min="191" max="191" customWidth="1" width="17.0" style="11"/>
+    <col min="192" max="192" customWidth="1" width="17.0" style="11"/>
+    <col min="193" max="193" customWidth="1" width="17.0" style="11"/>
+    <col min="194" max="194" customWidth="1" width="17.0" style="11"/>
+    <col min="195" max="195" customWidth="1" width="17.0" style="11"/>
+    <col min="196" max="196" customWidth="1" width="17.0" style="11"/>
+    <col min="197" max="197" customWidth="1" width="17.0" style="11"/>
+    <col min="198" max="198" customWidth="1" width="17.0" style="11"/>
+    <col min="199" max="199" customWidth="1" width="17.0" style="11"/>
+    <col min="200" max="200" customWidth="1" width="17.0" style="11"/>
+    <col min="201" max="201" customWidth="1" width="17.0" style="11"/>
+    <col min="202" max="202" customWidth="1" width="17.0" style="11"/>
+    <col min="203" max="203" customWidth="1" width="17.0" style="11"/>
+    <col min="204" max="204" customWidth="1" width="17.0" style="11"/>
+    <col min="205" max="205" customWidth="1" width="17.0" style="11"/>
+    <col min="206" max="206" customWidth="1" width="17.0" style="11"/>
+    <col min="207" max="207" customWidth="1" width="17.0" style="11"/>
+    <col min="208" max="208" customWidth="1" width="17.0" style="11"/>
+    <col min="209" max="209" customWidth="1" width="17.0" style="11"/>
+    <col min="210" max="210" customWidth="1" width="17.0" style="11"/>
+    <col min="211" max="211" customWidth="1" width="17.0" style="11"/>
+    <col min="212" max="212" customWidth="1" width="17.0" style="11"/>
+    <col min="213" max="213" customWidth="1" width="17.0" style="11"/>
+    <col min="214" max="214" customWidth="1" width="17.0" style="11"/>
+    <col min="215" max="215" customWidth="1" width="17.0" style="11"/>
+    <col min="216" max="216" customWidth="1" width="17.0" style="11"/>
+    <col min="217" max="217" customWidth="1" width="17.0" style="11"/>
+    <col min="218" max="218" customWidth="1" width="17.0" style="11"/>
+    <col min="219" max="219" customWidth="1" width="17.0" style="11"/>
+    <col min="220" max="220" customWidth="1" width="17.0" style="11"/>
+    <col min="221" max="221" customWidth="1" width="17.0" style="11"/>
+    <col min="222" max="222" customWidth="1" width="17.0" style="11"/>
+    <col min="223" max="223" customWidth="1" width="17.0" style="11"/>
+    <col min="224" max="224" customWidth="1" width="17.0" style="11"/>
+    <col min="225" max="225" customWidth="1" width="17.0" style="11"/>
+    <col min="226" max="226" customWidth="1" width="17.0" style="11"/>
+    <col min="227" max="227" customWidth="1" width="17.0" style="11"/>
+    <col min="228" max="228" customWidth="1" width="17.0" style="11"/>
+    <col min="229" max="229" customWidth="1" width="17.0" style="11"/>
+    <col min="230" max="230" customWidth="1" width="17.0" style="11"/>
+    <col min="231" max="231" customWidth="1" width="17.0" style="11"/>
+    <col min="232" max="232" customWidth="1" width="17.0" style="11"/>
+    <col min="233" max="233" customWidth="1" width="17.0" style="11"/>
+    <col min="234" max="234" customWidth="1" width="17.0" style="11"/>
+    <col min="235" max="235" customWidth="1" width="17.0" style="11"/>
+    <col min="236" max="236" customWidth="1" width="17.0" style="11"/>
+    <col min="237" max="237" customWidth="1" width="17.0" style="11"/>
+    <col min="238" max="238" customWidth="1" width="17.0" style="11"/>
+    <col min="239" max="239" customWidth="1" width="17.0" style="11"/>
+    <col min="240" max="240" customWidth="1" width="17.0" style="11"/>
+    <col min="241" max="241" customWidth="1" width="17.0" style="11"/>
+    <col min="242" max="242" customWidth="1" width="17.0" style="11"/>
+    <col min="243" max="243" customWidth="1" width="17.0" style="11"/>
+    <col min="244" max="244" customWidth="1" width="17.0" style="11"/>
+    <col min="245" max="245" customWidth="1" width="17.0" style="11"/>
+    <col min="246" max="246" customWidth="1" width="17.0" style="11"/>
+    <col min="247" max="247" customWidth="1" width="17.0" style="11"/>
+    <col min="248" max="248" customWidth="1" width="17.0" style="11"/>
+    <col min="249" max="249" customWidth="1" width="17.0" style="11"/>
+    <col min="250" max="250" customWidth="1" width="17.0" style="11"/>
+    <col min="251" max="251" customWidth="1" width="17.0" style="11"/>
+    <col min="252" max="252" customWidth="1" width="17.0" style="11"/>
+    <col min="253" max="253" customWidth="1" width="17.0" style="11"/>
+    <col min="254" max="254" customWidth="1" width="17.0" style="11"/>
+    <col min="255" max="255" customWidth="1" width="17.0" style="11"/>
+    <col min="256" max="256" customWidth="1" width="17.0" style="11"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="8:8" s="2" ht="15.0" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="8:8">
+      <c r="A2" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="8:8">
+      <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="28.5">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="8:8" ht="28.5">
+      <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.5">
-      <c r="A5" s="8" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="8:8" ht="28.5">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.5">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="8:8" ht="28.5">
+      <c r="A6" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="8:8" ht="28.5">
+      <c r="A7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="8:8">
+      <c r="A8" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="8:8">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="A10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="A11" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="8:8">
+      <c r="A12" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="8:8">
+      <c r="A13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="A14" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:IV7"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:IW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9" customWidth="1"/>
   <cols>
-    <col min="1" max="3" width="20.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="4" customWidth="1"/>
-    <col min="8" max="256" width="17" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="20.625" style="7"/>
+    <col min="2" max="2" customWidth="1" width="20.625" style="7"/>
+    <col min="3" max="3" customWidth="1" width="20.625" style="7"/>
+    <col min="4" max="4" customWidth="1" width="21.5" style="7"/>
+    <col min="5" max="5" customWidth="1" width="20.625" style="7"/>
+    <col min="6" max="6" customWidth="1" width="8.75" style="7"/>
+    <col min="7" max="7" customWidth="1" width="8.75" style="7"/>
+    <col min="8" max="8" customWidth="1" width="17.0" style="7"/>
+    <col min="9" max="9" customWidth="1" width="17.0" style="7"/>
+    <col min="10" max="10" customWidth="1" width="17.0" style="7"/>
+    <col min="11" max="11" customWidth="1" width="17.0" style="7"/>
+    <col min="12" max="12" customWidth="1" width="17.0" style="7"/>
+    <col min="13" max="13" customWidth="1" width="17.0" style="7"/>
+    <col min="14" max="14" customWidth="1" width="17.0" style="7"/>
+    <col min="15" max="15" customWidth="1" width="17.0" style="7"/>
+    <col min="16" max="16" customWidth="1" width="17.0" style="7"/>
+    <col min="17" max="17" customWidth="1" width="17.0" style="7"/>
+    <col min="18" max="18" customWidth="1" width="17.0" style="7"/>
+    <col min="19" max="19" customWidth="1" width="17.0" style="7"/>
+    <col min="20" max="20" customWidth="1" width="17.0" style="7"/>
+    <col min="21" max="21" customWidth="1" width="17.0" style="7"/>
+    <col min="22" max="22" customWidth="1" width="17.0" style="7"/>
+    <col min="23" max="23" customWidth="1" width="17.0" style="7"/>
+    <col min="24" max="24" customWidth="1" width="17.0" style="7"/>
+    <col min="25" max="25" customWidth="1" width="17.0" style="7"/>
+    <col min="26" max="26" customWidth="1" width="17.0" style="7"/>
+    <col min="27" max="27" customWidth="1" width="17.0" style="7"/>
+    <col min="28" max="28" customWidth="1" width="17.0" style="7"/>
+    <col min="29" max="29" customWidth="1" width="17.0" style="7"/>
+    <col min="30" max="30" customWidth="1" width="17.0" style="7"/>
+    <col min="31" max="31" customWidth="1" width="17.0" style="7"/>
+    <col min="32" max="32" customWidth="1" width="17.0" style="7"/>
+    <col min="33" max="33" customWidth="1" width="17.0" style="7"/>
+    <col min="34" max="34" customWidth="1" width="17.0" style="7"/>
+    <col min="35" max="35" customWidth="1" width="17.0" style="7"/>
+    <col min="36" max="36" customWidth="1" width="17.0" style="7"/>
+    <col min="37" max="37" customWidth="1" width="17.0" style="7"/>
+    <col min="38" max="38" customWidth="1" width="17.0" style="7"/>
+    <col min="39" max="39" customWidth="1" width="17.0" style="7"/>
+    <col min="40" max="40" customWidth="1" width="17.0" style="7"/>
+    <col min="41" max="41" customWidth="1" width="17.0" style="7"/>
+    <col min="42" max="42" customWidth="1" width="17.0" style="7"/>
+    <col min="43" max="43" customWidth="1" width="17.0" style="7"/>
+    <col min="44" max="44" customWidth="1" width="17.0" style="7"/>
+    <col min="45" max="45" customWidth="1" width="17.0" style="7"/>
+    <col min="46" max="46" customWidth="1" width="17.0" style="7"/>
+    <col min="47" max="47" customWidth="1" width="17.0" style="7"/>
+    <col min="48" max="48" customWidth="1" width="17.0" style="7"/>
+    <col min="49" max="49" customWidth="1" width="17.0" style="7"/>
+    <col min="50" max="50" customWidth="1" width="17.0" style="7"/>
+    <col min="51" max="51" customWidth="1" width="17.0" style="7"/>
+    <col min="52" max="52" customWidth="1" width="17.0" style="7"/>
+    <col min="53" max="53" customWidth="1" width="17.0" style="7"/>
+    <col min="54" max="54" customWidth="1" width="17.0" style="7"/>
+    <col min="55" max="55" customWidth="1" width="17.0" style="7"/>
+    <col min="56" max="56" customWidth="1" width="17.0" style="7"/>
+    <col min="57" max="57" customWidth="1" width="17.0" style="7"/>
+    <col min="58" max="58" customWidth="1" width="17.0" style="7"/>
+    <col min="59" max="59" customWidth="1" width="17.0" style="7"/>
+    <col min="60" max="60" customWidth="1" width="17.0" style="7"/>
+    <col min="61" max="61" customWidth="1" width="17.0" style="7"/>
+    <col min="62" max="62" customWidth="1" width="17.0" style="7"/>
+    <col min="63" max="63" customWidth="1" width="17.0" style="7"/>
+    <col min="64" max="64" customWidth="1" width="17.0" style="7"/>
+    <col min="65" max="65" customWidth="1" width="17.0" style="7"/>
+    <col min="66" max="66" customWidth="1" width="17.0" style="7"/>
+    <col min="67" max="67" customWidth="1" width="17.0" style="7"/>
+    <col min="68" max="68" customWidth="1" width="17.0" style="7"/>
+    <col min="69" max="69" customWidth="1" width="17.0" style="7"/>
+    <col min="70" max="70" customWidth="1" width="17.0" style="7"/>
+    <col min="71" max="71" customWidth="1" width="17.0" style="7"/>
+    <col min="72" max="72" customWidth="1" width="17.0" style="7"/>
+    <col min="73" max="73" customWidth="1" width="17.0" style="7"/>
+    <col min="74" max="74" customWidth="1" width="17.0" style="7"/>
+    <col min="75" max="75" customWidth="1" width="17.0" style="7"/>
+    <col min="76" max="76" customWidth="1" width="17.0" style="7"/>
+    <col min="77" max="77" customWidth="1" width="17.0" style="7"/>
+    <col min="78" max="78" customWidth="1" width="17.0" style="7"/>
+    <col min="79" max="79" customWidth="1" width="17.0" style="7"/>
+    <col min="80" max="80" customWidth="1" width="17.0" style="7"/>
+    <col min="81" max="81" customWidth="1" width="17.0" style="7"/>
+    <col min="82" max="82" customWidth="1" width="17.0" style="7"/>
+    <col min="83" max="83" customWidth="1" width="17.0" style="7"/>
+    <col min="84" max="84" customWidth="1" width="17.0" style="7"/>
+    <col min="85" max="85" customWidth="1" width="17.0" style="7"/>
+    <col min="86" max="86" customWidth="1" width="17.0" style="7"/>
+    <col min="87" max="87" customWidth="1" width="17.0" style="7"/>
+    <col min="88" max="88" customWidth="1" width="17.0" style="7"/>
+    <col min="89" max="89" customWidth="1" width="17.0" style="7"/>
+    <col min="90" max="90" customWidth="1" width="17.0" style="7"/>
+    <col min="91" max="91" customWidth="1" width="17.0" style="7"/>
+    <col min="92" max="92" customWidth="1" width="17.0" style="7"/>
+    <col min="93" max="93" customWidth="1" width="17.0" style="7"/>
+    <col min="94" max="94" customWidth="1" width="17.0" style="7"/>
+    <col min="95" max="95" customWidth="1" width="17.0" style="7"/>
+    <col min="96" max="96" customWidth="1" width="17.0" style="7"/>
+    <col min="97" max="97" customWidth="1" width="17.0" style="7"/>
+    <col min="98" max="98" customWidth="1" width="17.0" style="7"/>
+    <col min="99" max="99" customWidth="1" width="17.0" style="7"/>
+    <col min="100" max="100" customWidth="1" width="17.0" style="7"/>
+    <col min="101" max="101" customWidth="1" width="17.0" style="7"/>
+    <col min="102" max="102" customWidth="1" width="17.0" style="7"/>
+    <col min="103" max="103" customWidth="1" width="17.0" style="7"/>
+    <col min="104" max="104" customWidth="1" width="17.0" style="7"/>
+    <col min="105" max="105" customWidth="1" width="17.0" style="7"/>
+    <col min="106" max="106" customWidth="1" width="17.0" style="7"/>
+    <col min="107" max="107" customWidth="1" width="17.0" style="7"/>
+    <col min="108" max="108" customWidth="1" width="17.0" style="7"/>
+    <col min="109" max="109" customWidth="1" width="17.0" style="7"/>
+    <col min="110" max="110" customWidth="1" width="17.0" style="7"/>
+    <col min="111" max="111" customWidth="1" width="17.0" style="7"/>
+    <col min="112" max="112" customWidth="1" width="17.0" style="7"/>
+    <col min="113" max="113" customWidth="1" width="17.0" style="7"/>
+    <col min="114" max="114" customWidth="1" width="17.0" style="7"/>
+    <col min="115" max="115" customWidth="1" width="17.0" style="7"/>
+    <col min="116" max="116" customWidth="1" width="17.0" style="7"/>
+    <col min="117" max="117" customWidth="1" width="17.0" style="7"/>
+    <col min="118" max="118" customWidth="1" width="17.0" style="7"/>
+    <col min="119" max="119" customWidth="1" width="17.0" style="7"/>
+    <col min="120" max="120" customWidth="1" width="17.0" style="7"/>
+    <col min="121" max="121" customWidth="1" width="17.0" style="7"/>
+    <col min="122" max="122" customWidth="1" width="17.0" style="7"/>
+    <col min="123" max="123" customWidth="1" width="17.0" style="7"/>
+    <col min="124" max="124" customWidth="1" width="17.0" style="7"/>
+    <col min="125" max="125" customWidth="1" width="17.0" style="7"/>
+    <col min="126" max="126" customWidth="1" width="17.0" style="7"/>
+    <col min="127" max="127" customWidth="1" width="17.0" style="7"/>
+    <col min="128" max="128" customWidth="1" width="17.0" style="7"/>
+    <col min="129" max="129" customWidth="1" width="17.0" style="7"/>
+    <col min="130" max="130" customWidth="1" width="17.0" style="7"/>
+    <col min="131" max="131" customWidth="1" width="17.0" style="7"/>
+    <col min="132" max="132" customWidth="1" width="17.0" style="7"/>
+    <col min="133" max="133" customWidth="1" width="17.0" style="7"/>
+    <col min="134" max="134" customWidth="1" width="17.0" style="7"/>
+    <col min="135" max="135" customWidth="1" width="17.0" style="7"/>
+    <col min="136" max="136" customWidth="1" width="17.0" style="7"/>
+    <col min="137" max="137" customWidth="1" width="17.0" style="7"/>
+    <col min="138" max="138" customWidth="1" width="17.0" style="7"/>
+    <col min="139" max="139" customWidth="1" width="17.0" style="7"/>
+    <col min="140" max="140" customWidth="1" width="17.0" style="7"/>
+    <col min="141" max="141" customWidth="1" width="17.0" style="7"/>
+    <col min="142" max="142" customWidth="1" width="17.0" style="7"/>
+    <col min="143" max="143" customWidth="1" width="17.0" style="7"/>
+    <col min="144" max="144" customWidth="1" width="17.0" style="7"/>
+    <col min="145" max="145" customWidth="1" width="17.0" style="7"/>
+    <col min="146" max="146" customWidth="1" width="17.0" style="7"/>
+    <col min="147" max="147" customWidth="1" width="17.0" style="7"/>
+    <col min="148" max="148" customWidth="1" width="17.0" style="7"/>
+    <col min="149" max="149" customWidth="1" width="17.0" style="7"/>
+    <col min="150" max="150" customWidth="1" width="17.0" style="7"/>
+    <col min="151" max="151" customWidth="1" width="17.0" style="7"/>
+    <col min="152" max="152" customWidth="1" width="17.0" style="7"/>
+    <col min="153" max="153" customWidth="1" width="17.0" style="7"/>
+    <col min="154" max="154" customWidth="1" width="17.0" style="7"/>
+    <col min="155" max="155" customWidth="1" width="17.0" style="7"/>
+    <col min="156" max="156" customWidth="1" width="17.0" style="7"/>
+    <col min="157" max="157" customWidth="1" width="17.0" style="7"/>
+    <col min="158" max="158" customWidth="1" width="17.0" style="7"/>
+    <col min="159" max="159" customWidth="1" width="17.0" style="7"/>
+    <col min="160" max="160" customWidth="1" width="17.0" style="7"/>
+    <col min="161" max="161" customWidth="1" width="17.0" style="7"/>
+    <col min="162" max="162" customWidth="1" width="17.0" style="7"/>
+    <col min="163" max="163" customWidth="1" width="17.0" style="7"/>
+    <col min="164" max="164" customWidth="1" width="17.0" style="7"/>
+    <col min="165" max="165" customWidth="1" width="17.0" style="7"/>
+    <col min="166" max="166" customWidth="1" width="17.0" style="7"/>
+    <col min="167" max="167" customWidth="1" width="17.0" style="7"/>
+    <col min="168" max="168" customWidth="1" width="17.0" style="7"/>
+    <col min="169" max="169" customWidth="1" width="17.0" style="7"/>
+    <col min="170" max="170" customWidth="1" width="17.0" style="7"/>
+    <col min="171" max="171" customWidth="1" width="17.0" style="7"/>
+    <col min="172" max="172" customWidth="1" width="17.0" style="7"/>
+    <col min="173" max="173" customWidth="1" width="17.0" style="7"/>
+    <col min="174" max="174" customWidth="1" width="17.0" style="7"/>
+    <col min="175" max="175" customWidth="1" width="17.0" style="7"/>
+    <col min="176" max="176" customWidth="1" width="17.0" style="7"/>
+    <col min="177" max="177" customWidth="1" width="17.0" style="7"/>
+    <col min="178" max="178" customWidth="1" width="17.0" style="7"/>
+    <col min="179" max="179" customWidth="1" width="17.0" style="7"/>
+    <col min="180" max="180" customWidth="1" width="17.0" style="7"/>
+    <col min="181" max="181" customWidth="1" width="17.0" style="7"/>
+    <col min="182" max="182" customWidth="1" width="17.0" style="7"/>
+    <col min="183" max="183" customWidth="1" width="17.0" style="7"/>
+    <col min="184" max="184" customWidth="1" width="17.0" style="7"/>
+    <col min="185" max="185" customWidth="1" width="17.0" style="7"/>
+    <col min="186" max="186" customWidth="1" width="17.0" style="7"/>
+    <col min="187" max="187" customWidth="1" width="17.0" style="7"/>
+    <col min="188" max="188" customWidth="1" width="17.0" style="7"/>
+    <col min="189" max="189" customWidth="1" width="17.0" style="7"/>
+    <col min="190" max="190" customWidth="1" width="17.0" style="7"/>
+    <col min="191" max="191" customWidth="1" width="17.0" style="7"/>
+    <col min="192" max="192" customWidth="1" width="17.0" style="7"/>
+    <col min="193" max="193" customWidth="1" width="17.0" style="7"/>
+    <col min="194" max="194" customWidth="1" width="17.0" style="7"/>
+    <col min="195" max="195" customWidth="1" width="17.0" style="7"/>
+    <col min="196" max="196" customWidth="1" width="17.0" style="7"/>
+    <col min="197" max="197" customWidth="1" width="17.0" style="7"/>
+    <col min="198" max="198" customWidth="1" width="17.0" style="7"/>
+    <col min="199" max="199" customWidth="1" width="17.0" style="7"/>
+    <col min="200" max="200" customWidth="1" width="17.0" style="7"/>
+    <col min="201" max="201" customWidth="1" width="17.0" style="7"/>
+    <col min="202" max="202" customWidth="1" width="17.0" style="7"/>
+    <col min="203" max="203" customWidth="1" width="17.0" style="7"/>
+    <col min="204" max="204" customWidth="1" width="17.0" style="7"/>
+    <col min="205" max="205" customWidth="1" width="17.0" style="7"/>
+    <col min="206" max="206" customWidth="1" width="17.0" style="7"/>
+    <col min="207" max="207" customWidth="1" width="17.0" style="7"/>
+    <col min="208" max="208" customWidth="1" width="17.0" style="7"/>
+    <col min="209" max="209" customWidth="1" width="17.0" style="7"/>
+    <col min="210" max="210" customWidth="1" width="17.0" style="7"/>
+    <col min="211" max="211" customWidth="1" width="17.0" style="7"/>
+    <col min="212" max="212" customWidth="1" width="17.0" style="7"/>
+    <col min="213" max="213" customWidth="1" width="17.0" style="7"/>
+    <col min="214" max="214" customWidth="1" width="17.0" style="7"/>
+    <col min="215" max="215" customWidth="1" width="17.0" style="7"/>
+    <col min="216" max="216" customWidth="1" width="17.0" style="7"/>
+    <col min="217" max="217" customWidth="1" width="17.0" style="7"/>
+    <col min="218" max="218" customWidth="1" width="17.0" style="7"/>
+    <col min="219" max="219" customWidth="1" width="17.0" style="7"/>
+    <col min="220" max="220" customWidth="1" width="17.0" style="7"/>
+    <col min="221" max="221" customWidth="1" width="17.0" style="7"/>
+    <col min="222" max="222" customWidth="1" width="17.0" style="7"/>
+    <col min="223" max="223" customWidth="1" width="17.0" style="7"/>
+    <col min="224" max="224" customWidth="1" width="17.0" style="7"/>
+    <col min="225" max="225" customWidth="1" width="17.0" style="7"/>
+    <col min="226" max="226" customWidth="1" width="17.0" style="7"/>
+    <col min="227" max="227" customWidth="1" width="17.0" style="7"/>
+    <col min="228" max="228" customWidth="1" width="17.0" style="7"/>
+    <col min="229" max="229" customWidth="1" width="17.0" style="7"/>
+    <col min="230" max="230" customWidth="1" width="17.0" style="7"/>
+    <col min="231" max="231" customWidth="1" width="17.0" style="7"/>
+    <col min="232" max="232" customWidth="1" width="17.0" style="7"/>
+    <col min="233" max="233" customWidth="1" width="17.0" style="7"/>
+    <col min="234" max="234" customWidth="1" width="17.0" style="7"/>
+    <col min="235" max="235" customWidth="1" width="17.0" style="7"/>
+    <col min="236" max="236" customWidth="1" width="17.0" style="7"/>
+    <col min="237" max="237" customWidth="1" width="17.0" style="7"/>
+    <col min="238" max="238" customWidth="1" width="17.0" style="7"/>
+    <col min="239" max="239" customWidth="1" width="17.0" style="7"/>
+    <col min="240" max="240" customWidth="1" width="17.0" style="7"/>
+    <col min="241" max="241" customWidth="1" width="17.0" style="7"/>
+    <col min="242" max="242" customWidth="1" width="17.0" style="7"/>
+    <col min="243" max="243" customWidth="1" width="17.0" style="7"/>
+    <col min="244" max="244" customWidth="1" width="17.0" style="7"/>
+    <col min="245" max="245" customWidth="1" width="17.0" style="7"/>
+    <col min="246" max="246" customWidth="1" width="17.0" style="7"/>
+    <col min="247" max="247" customWidth="1" width="17.0" style="7"/>
+    <col min="248" max="248" customWidth="1" width="17.0" style="7"/>
+    <col min="249" max="249" customWidth="1" width="17.0" style="7"/>
+    <col min="250" max="250" customWidth="1" width="17.0" style="7"/>
+    <col min="251" max="251" customWidth="1" width="17.0" style="7"/>
+    <col min="252" max="252" customWidth="1" width="17.0" style="7"/>
+    <col min="253" max="253" customWidth="1" width="17.0" style="7"/>
+    <col min="254" max="254" customWidth="1" width="17.0" style="7"/>
+    <col min="255" max="255" customWidth="1" width="17.0" style="7"/>
+    <col min="256" max="256" customWidth="1" width="17.0" style="7"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="2" customFormat="1" ht="15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="8:8" s="2" ht="15.0" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:256">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="8:8">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:256">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="8:8">
+      <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:256">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:256">
-      <c r="A5" s="8" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:256" s="11" customFormat="1">
-      <c r="A6" s="8" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="8:8" s="12" ht="14.25" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
-      <c r="BT6" s="3"/>
-      <c r="BU6" s="3"/>
-      <c r="BV6" s="3"/>
-      <c r="BW6" s="3"/>
-      <c r="BX6" s="3"/>
-      <c r="BY6" s="3"/>
-      <c r="BZ6" s="3"/>
-      <c r="CA6" s="3"/>
-      <c r="CB6" s="3"/>
-      <c r="CC6" s="3"/>
-      <c r="CD6" s="3"/>
-      <c r="CE6" s="3"/>
-      <c r="CF6" s="3"/>
-      <c r="CG6" s="3"/>
-      <c r="CH6" s="3"/>
-      <c r="CI6" s="3"/>
-      <c r="CJ6" s="3"/>
-      <c r="CK6" s="3"/>
-      <c r="CL6" s="3"/>
-      <c r="CM6" s="3"/>
-      <c r="CN6" s="3"/>
-      <c r="CO6" s="3"/>
-      <c r="CP6" s="3"/>
-      <c r="CQ6" s="3"/>
-      <c r="CR6" s="3"/>
-      <c r="CS6" s="3"/>
-      <c r="CT6" s="3"/>
-      <c r="CU6" s="3"/>
-      <c r="CV6" s="3"/>
-      <c r="CW6" s="3"/>
-      <c r="CX6" s="3"/>
-      <c r="CY6" s="3"/>
-      <c r="CZ6" s="3"/>
-      <c r="DA6" s="3"/>
-      <c r="DB6" s="3"/>
-      <c r="DC6" s="3"/>
-      <c r="DD6" s="3"/>
-      <c r="DE6" s="3"/>
-      <c r="DF6" s="3"/>
-      <c r="DG6" s="3"/>
-      <c r="DH6" s="3"/>
-      <c r="DI6" s="3"/>
-      <c r="DJ6" s="3"/>
-      <c r="DK6" s="3"/>
-      <c r="DL6" s="3"/>
-      <c r="DM6" s="3"/>
-      <c r="DN6" s="3"/>
-      <c r="DO6" s="3"/>
-      <c r="DP6" s="3"/>
-      <c r="DQ6" s="3"/>
-      <c r="DR6" s="3"/>
-      <c r="DS6" s="3"/>
-      <c r="DT6" s="3"/>
-      <c r="DU6" s="3"/>
-      <c r="DV6" s="3"/>
-      <c r="DW6" s="3"/>
-      <c r="DX6" s="3"/>
-      <c r="DY6" s="3"/>
-      <c r="DZ6" s="3"/>
-      <c r="EA6" s="3"/>
-      <c r="EB6" s="3"/>
-      <c r="EC6" s="3"/>
-      <c r="ED6" s="3"/>
-      <c r="EE6" s="3"/>
-      <c r="EF6" s="3"/>
-      <c r="EG6" s="3"/>
-      <c r="EH6" s="3"/>
-      <c r="EI6" s="3"/>
-      <c r="EJ6" s="3"/>
-      <c r="EK6" s="3"/>
-      <c r="EL6" s="3"/>
-      <c r="EM6" s="3"/>
-      <c r="EN6" s="3"/>
-      <c r="EO6" s="3"/>
-      <c r="EP6" s="3"/>
-      <c r="EQ6" s="3"/>
-      <c r="ER6" s="3"/>
-      <c r="ES6" s="3"/>
-      <c r="ET6" s="3"/>
-      <c r="EU6" s="3"/>
-      <c r="EV6" s="3"/>
-      <c r="EW6" s="3"/>
-      <c r="EX6" s="3"/>
-      <c r="EY6" s="3"/>
-      <c r="EZ6" s="3"/>
-      <c r="FA6" s="3"/>
-      <c r="FB6" s="3"/>
-      <c r="FC6" s="3"/>
-      <c r="FD6" s="3"/>
-      <c r="FE6" s="3"/>
-      <c r="FF6" s="3"/>
-      <c r="FG6" s="3"/>
-      <c r="FH6" s="3"/>
-      <c r="FI6" s="3"/>
-      <c r="FJ6" s="3"/>
-      <c r="FK6" s="3"/>
-      <c r="FL6" s="3"/>
-      <c r="FM6" s="3"/>
-      <c r="FN6" s="3"/>
-      <c r="FO6" s="3"/>
-      <c r="FP6" s="3"/>
-      <c r="FQ6" s="3"/>
-      <c r="FR6" s="3"/>
-      <c r="FS6" s="3"/>
-      <c r="FT6" s="3"/>
-      <c r="FU6" s="3"/>
-      <c r="FV6" s="3"/>
-      <c r="FW6" s="3"/>
-      <c r="FX6" s="3"/>
-      <c r="FY6" s="3"/>
-      <c r="FZ6" s="3"/>
-      <c r="GA6" s="3"/>
-      <c r="GB6" s="3"/>
-      <c r="GC6" s="3"/>
-      <c r="GD6" s="3"/>
-      <c r="GE6" s="3"/>
-      <c r="GF6" s="3"/>
-      <c r="GG6" s="3"/>
-      <c r="GH6" s="3"/>
-      <c r="GI6" s="3"/>
-      <c r="GJ6" s="3"/>
-      <c r="GK6" s="3"/>
-      <c r="GL6" s="3"/>
-      <c r="GM6" s="3"/>
-      <c r="GN6" s="3"/>
-      <c r="GO6" s="3"/>
-      <c r="GP6" s="3"/>
-      <c r="GQ6" s="3"/>
-      <c r="GR6" s="3"/>
-      <c r="GS6" s="3"/>
-      <c r="GT6" s="3"/>
-      <c r="GU6" s="3"/>
-      <c r="GV6" s="3"/>
-      <c r="GW6" s="3"/>
-      <c r="GX6" s="3"/>
-      <c r="GY6" s="3"/>
-      <c r="GZ6" s="3"/>
-      <c r="HA6" s="3"/>
-      <c r="HB6" s="3"/>
-      <c r="HC6" s="3"/>
-      <c r="HD6" s="3"/>
-      <c r="HE6" s="3"/>
-      <c r="HF6" s="3"/>
-      <c r="HG6" s="3"/>
-      <c r="HH6" s="3"/>
-      <c r="HI6" s="3"/>
-      <c r="HJ6" s="3"/>
-      <c r="HK6" s="3"/>
-      <c r="HL6" s="3"/>
-      <c r="HM6" s="3"/>
-      <c r="HN6" s="3"/>
-      <c r="HO6" s="3"/>
-      <c r="HP6" s="3"/>
-      <c r="HQ6" s="3"/>
-      <c r="HR6" s="3"/>
-      <c r="HS6" s="3"/>
-      <c r="HT6" s="3"/>
-      <c r="HU6" s="3"/>
-      <c r="HV6" s="3"/>
-      <c r="HW6" s="3"/>
-      <c r="HX6" s="3"/>
-      <c r="HY6" s="3"/>
-      <c r="HZ6" s="3"/>
-      <c r="IA6" s="3"/>
-      <c r="IB6" s="3"/>
-      <c r="IC6" s="3"/>
-      <c r="ID6" s="3"/>
-      <c r="IE6" s="3"/>
-      <c r="IF6" s="3"/>
-      <c r="IG6" s="3"/>
-      <c r="IH6" s="3"/>
-      <c r="II6" s="3"/>
-      <c r="IJ6" s="3"/>
-      <c r="IK6" s="3"/>
-      <c r="IL6" s="3"/>
-      <c r="IM6" s="3"/>
-      <c r="IN6" s="3"/>
-      <c r="IO6" s="3"/>
-      <c r="IP6" s="3"/>
-      <c r="IQ6" s="3"/>
-      <c r="IR6" s="3"/>
-      <c r="IS6" s="3"/>
-      <c r="IT6" s="3"/>
-      <c r="IU6" s="3"/>
-      <c r="IV6" s="3"/>
-    </row>
-    <row r="7" spans="1:256">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BQ6" s="13"/>
+      <c r="BR6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BT6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BV6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BX6" s="13"/>
+      <c r="BY6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CA6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CC6" s="13"/>
+      <c r="CD6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CF6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CH6" s="13"/>
+      <c r="CI6" s="13"/>
+      <c r="CJ6" s="13"/>
+      <c r="CK6" s="13"/>
+      <c r="CL6" s="13"/>
+      <c r="CM6" s="13"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="13"/>
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="13"/>
+      <c r="CS6" s="13"/>
+      <c r="CT6" s="13"/>
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13"/>
+      <c r="CW6" s="13"/>
+      <c r="CX6" s="13"/>
+      <c r="CY6" s="13"/>
+      <c r="CZ6" s="13"/>
+      <c r="DA6" s="13"/>
+      <c r="DB6" s="13"/>
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="13"/>
+      <c r="DE6" s="13"/>
+      <c r="DF6" s="13"/>
+      <c r="DG6" s="13"/>
+      <c r="DH6" s="13"/>
+      <c r="DI6" s="13"/>
+      <c r="DJ6" s="13"/>
+      <c r="DK6" s="13"/>
+      <c r="DL6" s="13"/>
+      <c r="DM6" s="13"/>
+      <c r="DN6" s="13"/>
+      <c r="DO6" s="13"/>
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="13"/>
+      <c r="DR6" s="13"/>
+      <c r="DS6" s="13"/>
+      <c r="DT6" s="13"/>
+      <c r="DU6" s="13"/>
+      <c r="DV6" s="13"/>
+      <c r="DW6" s="13"/>
+      <c r="DX6" s="13"/>
+      <c r="DY6" s="13"/>
+      <c r="DZ6" s="13"/>
+      <c r="EA6" s="13"/>
+      <c r="EB6" s="13"/>
+      <c r="EC6" s="13"/>
+      <c r="ED6" s="13"/>
+      <c r="EE6" s="13"/>
+      <c r="EF6" s="13"/>
+      <c r="EG6" s="13"/>
+      <c r="EH6" s="13"/>
+      <c r="EI6" s="13"/>
+      <c r="EJ6" s="13"/>
+      <c r="EK6" s="13"/>
+      <c r="EL6" s="13"/>
+      <c r="EM6" s="13"/>
+      <c r="EN6" s="13"/>
+      <c r="EO6" s="13"/>
+      <c r="EP6" s="13"/>
+      <c r="EQ6" s="13"/>
+      <c r="ER6" s="13"/>
+      <c r="ES6" s="13"/>
+      <c r="ET6" s="13"/>
+      <c r="EU6" s="13"/>
+      <c r="EV6" s="13"/>
+      <c r="EW6" s="13"/>
+      <c r="EX6" s="13"/>
+      <c r="EY6" s="13"/>
+      <c r="EZ6" s="13"/>
+      <c r="FA6" s="13"/>
+      <c r="FB6" s="13"/>
+      <c r="FC6" s="13"/>
+      <c r="FD6" s="13"/>
+      <c r="FE6" s="13"/>
+      <c r="FF6" s="13"/>
+      <c r="FG6" s="13"/>
+      <c r="FH6" s="13"/>
+      <c r="FI6" s="13"/>
+      <c r="FJ6" s="13"/>
+      <c r="FK6" s="13"/>
+      <c r="FL6" s="13"/>
+      <c r="FM6" s="13"/>
+      <c r="FN6" s="13"/>
+      <c r="FO6" s="13"/>
+      <c r="FP6" s="13"/>
+      <c r="FQ6" s="13"/>
+      <c r="FR6" s="13"/>
+      <c r="FS6" s="13"/>
+      <c r="FT6" s="13"/>
+      <c r="FU6" s="13"/>
+      <c r="FV6" s="13"/>
+      <c r="FW6" s="13"/>
+      <c r="FX6" s="13"/>
+      <c r="FY6" s="13"/>
+      <c r="FZ6" s="13"/>
+      <c r="GA6" s="13"/>
+      <c r="GB6" s="13"/>
+      <c r="GC6" s="13"/>
+      <c r="GD6" s="13"/>
+      <c r="GE6" s="13"/>
+      <c r="GF6" s="13"/>
+      <c r="GG6" s="13"/>
+      <c r="GH6" s="13"/>
+      <c r="GI6" s="13"/>
+      <c r="GJ6" s="13"/>
+      <c r="GK6" s="13"/>
+      <c r="GL6" s="13"/>
+      <c r="GM6" s="13"/>
+      <c r="GN6" s="13"/>
+      <c r="GO6" s="13"/>
+      <c r="GP6" s="13"/>
+      <c r="GQ6" s="13"/>
+      <c r="GR6" s="13"/>
+      <c r="GS6" s="13"/>
+      <c r="GT6" s="13"/>
+      <c r="GU6" s="13"/>
+      <c r="GV6" s="13"/>
+      <c r="GW6" s="13"/>
+      <c r="GX6" s="13"/>
+      <c r="GY6" s="13"/>
+      <c r="GZ6" s="13"/>
+      <c r="HA6" s="13"/>
+      <c r="HB6" s="13"/>
+      <c r="HC6" s="13"/>
+      <c r="HD6" s="13"/>
+      <c r="HE6" s="13"/>
+      <c r="HF6" s="13"/>
+      <c r="HG6" s="13"/>
+      <c r="HH6" s="13"/>
+      <c r="HI6" s="13"/>
+      <c r="HJ6" s="13"/>
+      <c r="HK6" s="13"/>
+      <c r="HL6" s="13"/>
+      <c r="HM6" s="13"/>
+      <c r="HN6" s="13"/>
+      <c r="HO6" s="13"/>
+      <c r="HP6" s="13"/>
+      <c r="HQ6" s="13"/>
+      <c r="HR6" s="13"/>
+      <c r="HS6" s="13"/>
+      <c r="HT6" s="13"/>
+      <c r="HU6" s="13"/>
+      <c r="HV6" s="13"/>
+      <c r="HW6" s="13"/>
+      <c r="HX6" s="13"/>
+      <c r="HY6" s="13"/>
+      <c r="HZ6" s="13"/>
+      <c r="IA6" s="13"/>
+      <c r="IB6" s="13"/>
+      <c r="IC6" s="13"/>
+      <c r="ID6" s="13"/>
+      <c r="IE6" s="13"/>
+      <c r="IF6" s="13"/>
+      <c r="IG6" s="13"/>
+      <c r="IH6" s="13"/>
+      <c r="II6" s="13"/>
+      <c r="IJ6" s="13"/>
+      <c r="IK6" s="13"/>
+      <c r="IL6" s="13"/>
+      <c r="IM6" s="13"/>
+      <c r="IN6" s="13"/>
+      <c r="IO6" s="13"/>
+      <c r="IP6" s="13"/>
+      <c r="IQ6" s="13"/>
+      <c r="IR6" s="13"/>
+      <c r="IS6" s="13"/>
+      <c r="IT6" s="13"/>
+      <c r="IU6" s="13"/>
+      <c r="IV6" s="13"/>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="A7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:IV25"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:IW25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A13">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9" customWidth="1"/>
   <cols>
-    <col min="1" max="3" width="20.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="3" customWidth="1"/>
-    <col min="8" max="256" width="17" style="3" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="11"/>
+    <col min="1" max="1" customWidth="1" width="20.625" style="14"/>
+    <col min="2" max="2" customWidth="1" width="20.625" style="14"/>
+    <col min="3" max="3" customWidth="1" width="20.625" style="14"/>
+    <col min="4" max="4" customWidth="1" width="21.5" style="14"/>
+    <col min="5" max="5" customWidth="1" width="20.625" style="14"/>
+    <col min="6" max="6" customWidth="1" width="8.75" style="13"/>
+    <col min="7" max="7" customWidth="1" width="8.75" style="13"/>
+    <col min="8" max="8" customWidth="1" width="17.0" style="13"/>
+    <col min="9" max="9" customWidth="1" width="17.0" style="13"/>
+    <col min="10" max="10" customWidth="1" width="17.0" style="13"/>
+    <col min="11" max="11" customWidth="1" width="17.0" style="13"/>
+    <col min="12" max="12" customWidth="1" width="17.0" style="13"/>
+    <col min="13" max="13" customWidth="1" width="17.0" style="13"/>
+    <col min="14" max="14" customWidth="1" width="17.0" style="13"/>
+    <col min="15" max="15" customWidth="1" width="17.0" style="13"/>
+    <col min="16" max="16" customWidth="1" width="17.0" style="13"/>
+    <col min="17" max="17" customWidth="1" width="17.0" style="13"/>
+    <col min="18" max="18" customWidth="1" width="17.0" style="13"/>
+    <col min="19" max="19" customWidth="1" width="17.0" style="13"/>
+    <col min="20" max="20" customWidth="1" width="17.0" style="13"/>
+    <col min="21" max="21" customWidth="1" width="17.0" style="13"/>
+    <col min="22" max="22" customWidth="1" width="17.0" style="13"/>
+    <col min="23" max="23" customWidth="1" width="17.0" style="13"/>
+    <col min="24" max="24" customWidth="1" width="17.0" style="13"/>
+    <col min="25" max="25" customWidth="1" width="17.0" style="13"/>
+    <col min="26" max="26" customWidth="1" width="17.0" style="13"/>
+    <col min="27" max="27" customWidth="1" width="17.0" style="13"/>
+    <col min="28" max="28" customWidth="1" width="17.0" style="13"/>
+    <col min="29" max="29" customWidth="1" width="17.0" style="13"/>
+    <col min="30" max="30" customWidth="1" width="17.0" style="13"/>
+    <col min="31" max="31" customWidth="1" width="17.0" style="13"/>
+    <col min="32" max="32" customWidth="1" width="17.0" style="13"/>
+    <col min="33" max="33" customWidth="1" width="17.0" style="13"/>
+    <col min="34" max="34" customWidth="1" width="17.0" style="13"/>
+    <col min="35" max="35" customWidth="1" width="17.0" style="13"/>
+    <col min="36" max="36" customWidth="1" width="17.0" style="13"/>
+    <col min="37" max="37" customWidth="1" width="17.0" style="13"/>
+    <col min="38" max="38" customWidth="1" width="17.0" style="13"/>
+    <col min="39" max="39" customWidth="1" width="17.0" style="13"/>
+    <col min="40" max="40" customWidth="1" width="17.0" style="13"/>
+    <col min="41" max="41" customWidth="1" width="17.0" style="13"/>
+    <col min="42" max="42" customWidth="1" width="17.0" style="13"/>
+    <col min="43" max="43" customWidth="1" width="17.0" style="13"/>
+    <col min="44" max="44" customWidth="1" width="17.0" style="13"/>
+    <col min="45" max="45" customWidth="1" width="17.0" style="13"/>
+    <col min="46" max="46" customWidth="1" width="17.0" style="13"/>
+    <col min="47" max="47" customWidth="1" width="17.0" style="13"/>
+    <col min="48" max="48" customWidth="1" width="17.0" style="13"/>
+    <col min="49" max="49" customWidth="1" width="17.0" style="13"/>
+    <col min="50" max="50" customWidth="1" width="17.0" style="13"/>
+    <col min="51" max="51" customWidth="1" width="17.0" style="13"/>
+    <col min="52" max="52" customWidth="1" width="17.0" style="13"/>
+    <col min="53" max="53" customWidth="1" width="17.0" style="13"/>
+    <col min="54" max="54" customWidth="1" width="17.0" style="13"/>
+    <col min="55" max="55" customWidth="1" width="17.0" style="13"/>
+    <col min="56" max="56" customWidth="1" width="17.0" style="13"/>
+    <col min="57" max="57" customWidth="1" width="17.0" style="13"/>
+    <col min="58" max="58" customWidth="1" width="17.0" style="13"/>
+    <col min="59" max="59" customWidth="1" width="17.0" style="13"/>
+    <col min="60" max="60" customWidth="1" width="17.0" style="13"/>
+    <col min="61" max="61" customWidth="1" width="17.0" style="13"/>
+    <col min="62" max="62" customWidth="1" width="17.0" style="13"/>
+    <col min="63" max="63" customWidth="1" width="17.0" style="13"/>
+    <col min="64" max="64" customWidth="1" width="17.0" style="13"/>
+    <col min="65" max="65" customWidth="1" width="17.0" style="13"/>
+    <col min="66" max="66" customWidth="1" width="17.0" style="13"/>
+    <col min="67" max="67" customWidth="1" width="17.0" style="13"/>
+    <col min="68" max="68" customWidth="1" width="17.0" style="13"/>
+    <col min="69" max="69" customWidth="1" width="17.0" style="13"/>
+    <col min="70" max="70" customWidth="1" width="17.0" style="13"/>
+    <col min="71" max="71" customWidth="1" width="17.0" style="13"/>
+    <col min="72" max="72" customWidth="1" width="17.0" style="13"/>
+    <col min="73" max="73" customWidth="1" width="17.0" style="13"/>
+    <col min="74" max="74" customWidth="1" width="17.0" style="13"/>
+    <col min="75" max="75" customWidth="1" width="17.0" style="13"/>
+    <col min="76" max="76" customWidth="1" width="17.0" style="13"/>
+    <col min="77" max="77" customWidth="1" width="17.0" style="13"/>
+    <col min="78" max="78" customWidth="1" width="17.0" style="13"/>
+    <col min="79" max="79" customWidth="1" width="17.0" style="13"/>
+    <col min="80" max="80" customWidth="1" width="17.0" style="13"/>
+    <col min="81" max="81" customWidth="1" width="17.0" style="13"/>
+    <col min="82" max="82" customWidth="1" width="17.0" style="13"/>
+    <col min="83" max="83" customWidth="1" width="17.0" style="13"/>
+    <col min="84" max="84" customWidth="1" width="17.0" style="13"/>
+    <col min="85" max="85" customWidth="1" width="17.0" style="13"/>
+    <col min="86" max="86" customWidth="1" width="17.0" style="13"/>
+    <col min="87" max="87" customWidth="1" width="17.0" style="13"/>
+    <col min="88" max="88" customWidth="1" width="17.0" style="13"/>
+    <col min="89" max="89" customWidth="1" width="17.0" style="13"/>
+    <col min="90" max="90" customWidth="1" width="17.0" style="13"/>
+    <col min="91" max="91" customWidth="1" width="17.0" style="13"/>
+    <col min="92" max="92" customWidth="1" width="17.0" style="13"/>
+    <col min="93" max="93" customWidth="1" width="17.0" style="13"/>
+    <col min="94" max="94" customWidth="1" width="17.0" style="13"/>
+    <col min="95" max="95" customWidth="1" width="17.0" style="13"/>
+    <col min="96" max="96" customWidth="1" width="17.0" style="13"/>
+    <col min="97" max="97" customWidth="1" width="17.0" style="13"/>
+    <col min="98" max="98" customWidth="1" width="17.0" style="13"/>
+    <col min="99" max="99" customWidth="1" width="17.0" style="13"/>
+    <col min="100" max="100" customWidth="1" width="17.0" style="13"/>
+    <col min="101" max="101" customWidth="1" width="17.0" style="13"/>
+    <col min="102" max="102" customWidth="1" width="17.0" style="13"/>
+    <col min="103" max="103" customWidth="1" width="17.0" style="13"/>
+    <col min="104" max="104" customWidth="1" width="17.0" style="13"/>
+    <col min="105" max="105" customWidth="1" width="17.0" style="13"/>
+    <col min="106" max="106" customWidth="1" width="17.0" style="13"/>
+    <col min="107" max="107" customWidth="1" width="17.0" style="13"/>
+    <col min="108" max="108" customWidth="1" width="17.0" style="13"/>
+    <col min="109" max="109" customWidth="1" width="17.0" style="13"/>
+    <col min="110" max="110" customWidth="1" width="17.0" style="13"/>
+    <col min="111" max="111" customWidth="1" width="17.0" style="13"/>
+    <col min="112" max="112" customWidth="1" width="17.0" style="13"/>
+    <col min="113" max="113" customWidth="1" width="17.0" style="13"/>
+    <col min="114" max="114" customWidth="1" width="17.0" style="13"/>
+    <col min="115" max="115" customWidth="1" width="17.0" style="13"/>
+    <col min="116" max="116" customWidth="1" width="17.0" style="13"/>
+    <col min="117" max="117" customWidth="1" width="17.0" style="13"/>
+    <col min="118" max="118" customWidth="1" width="17.0" style="13"/>
+    <col min="119" max="119" customWidth="1" width="17.0" style="13"/>
+    <col min="120" max="120" customWidth="1" width="17.0" style="13"/>
+    <col min="121" max="121" customWidth="1" width="17.0" style="13"/>
+    <col min="122" max="122" customWidth="1" width="17.0" style="13"/>
+    <col min="123" max="123" customWidth="1" width="17.0" style="13"/>
+    <col min="124" max="124" customWidth="1" width="17.0" style="13"/>
+    <col min="125" max="125" customWidth="1" width="17.0" style="13"/>
+    <col min="126" max="126" customWidth="1" width="17.0" style="13"/>
+    <col min="127" max="127" customWidth="1" width="17.0" style="13"/>
+    <col min="128" max="128" customWidth="1" width="17.0" style="13"/>
+    <col min="129" max="129" customWidth="1" width="17.0" style="13"/>
+    <col min="130" max="130" customWidth="1" width="17.0" style="13"/>
+    <col min="131" max="131" customWidth="1" width="17.0" style="13"/>
+    <col min="132" max="132" customWidth="1" width="17.0" style="13"/>
+    <col min="133" max="133" customWidth="1" width="17.0" style="13"/>
+    <col min="134" max="134" customWidth="1" width="17.0" style="13"/>
+    <col min="135" max="135" customWidth="1" width="17.0" style="13"/>
+    <col min="136" max="136" customWidth="1" width="17.0" style="13"/>
+    <col min="137" max="137" customWidth="1" width="17.0" style="13"/>
+    <col min="138" max="138" customWidth="1" width="17.0" style="13"/>
+    <col min="139" max="139" customWidth="1" width="17.0" style="13"/>
+    <col min="140" max="140" customWidth="1" width="17.0" style="13"/>
+    <col min="141" max="141" customWidth="1" width="17.0" style="13"/>
+    <col min="142" max="142" customWidth="1" width="17.0" style="13"/>
+    <col min="143" max="143" customWidth="1" width="17.0" style="13"/>
+    <col min="144" max="144" customWidth="1" width="17.0" style="13"/>
+    <col min="145" max="145" customWidth="1" width="17.0" style="13"/>
+    <col min="146" max="146" customWidth="1" width="17.0" style="13"/>
+    <col min="147" max="147" customWidth="1" width="17.0" style="13"/>
+    <col min="148" max="148" customWidth="1" width="17.0" style="13"/>
+    <col min="149" max="149" customWidth="1" width="17.0" style="13"/>
+    <col min="150" max="150" customWidth="1" width="17.0" style="13"/>
+    <col min="151" max="151" customWidth="1" width="17.0" style="13"/>
+    <col min="152" max="152" customWidth="1" width="17.0" style="13"/>
+    <col min="153" max="153" customWidth="1" width="17.0" style="13"/>
+    <col min="154" max="154" customWidth="1" width="17.0" style="13"/>
+    <col min="155" max="155" customWidth="1" width="17.0" style="13"/>
+    <col min="156" max="156" customWidth="1" width="17.0" style="13"/>
+    <col min="157" max="157" customWidth="1" width="17.0" style="13"/>
+    <col min="158" max="158" customWidth="1" width="17.0" style="13"/>
+    <col min="159" max="159" customWidth="1" width="17.0" style="13"/>
+    <col min="160" max="160" customWidth="1" width="17.0" style="13"/>
+    <col min="161" max="161" customWidth="1" width="17.0" style="13"/>
+    <col min="162" max="162" customWidth="1" width="17.0" style="13"/>
+    <col min="163" max="163" customWidth="1" width="17.0" style="13"/>
+    <col min="164" max="164" customWidth="1" width="17.0" style="13"/>
+    <col min="165" max="165" customWidth="1" width="17.0" style="13"/>
+    <col min="166" max="166" customWidth="1" width="17.0" style="13"/>
+    <col min="167" max="167" customWidth="1" width="17.0" style="13"/>
+    <col min="168" max="168" customWidth="1" width="17.0" style="13"/>
+    <col min="169" max="169" customWidth="1" width="17.0" style="13"/>
+    <col min="170" max="170" customWidth="1" width="17.0" style="13"/>
+    <col min="171" max="171" customWidth="1" width="17.0" style="13"/>
+    <col min="172" max="172" customWidth="1" width="17.0" style="13"/>
+    <col min="173" max="173" customWidth="1" width="17.0" style="13"/>
+    <col min="174" max="174" customWidth="1" width="17.0" style="13"/>
+    <col min="175" max="175" customWidth="1" width="17.0" style="13"/>
+    <col min="176" max="176" customWidth="1" width="17.0" style="13"/>
+    <col min="177" max="177" customWidth="1" width="17.0" style="13"/>
+    <col min="178" max="178" customWidth="1" width="17.0" style="13"/>
+    <col min="179" max="179" customWidth="1" width="17.0" style="13"/>
+    <col min="180" max="180" customWidth="1" width="17.0" style="13"/>
+    <col min="181" max="181" customWidth="1" width="17.0" style="13"/>
+    <col min="182" max="182" customWidth="1" width="17.0" style="13"/>
+    <col min="183" max="183" customWidth="1" width="17.0" style="13"/>
+    <col min="184" max="184" customWidth="1" width="17.0" style="13"/>
+    <col min="185" max="185" customWidth="1" width="17.0" style="13"/>
+    <col min="186" max="186" customWidth="1" width="17.0" style="13"/>
+    <col min="187" max="187" customWidth="1" width="17.0" style="13"/>
+    <col min="188" max="188" customWidth="1" width="17.0" style="13"/>
+    <col min="189" max="189" customWidth="1" width="17.0" style="13"/>
+    <col min="190" max="190" customWidth="1" width="17.0" style="13"/>
+    <col min="191" max="191" customWidth="1" width="17.0" style="13"/>
+    <col min="192" max="192" customWidth="1" width="17.0" style="13"/>
+    <col min="193" max="193" customWidth="1" width="17.0" style="13"/>
+    <col min="194" max="194" customWidth="1" width="17.0" style="13"/>
+    <col min="195" max="195" customWidth="1" width="17.0" style="13"/>
+    <col min="196" max="196" customWidth="1" width="17.0" style="13"/>
+    <col min="197" max="197" customWidth="1" width="17.0" style="13"/>
+    <col min="198" max="198" customWidth="1" width="17.0" style="13"/>
+    <col min="199" max="199" customWidth="1" width="17.0" style="13"/>
+    <col min="200" max="200" customWidth="1" width="17.0" style="13"/>
+    <col min="201" max="201" customWidth="1" width="17.0" style="13"/>
+    <col min="202" max="202" customWidth="1" width="17.0" style="13"/>
+    <col min="203" max="203" customWidth="1" width="17.0" style="13"/>
+    <col min="204" max="204" customWidth="1" width="17.0" style="13"/>
+    <col min="205" max="205" customWidth="1" width="17.0" style="13"/>
+    <col min="206" max="206" customWidth="1" width="17.0" style="13"/>
+    <col min="207" max="207" customWidth="1" width="17.0" style="13"/>
+    <col min="208" max="208" customWidth="1" width="17.0" style="13"/>
+    <col min="209" max="209" customWidth="1" width="17.0" style="13"/>
+    <col min="210" max="210" customWidth="1" width="17.0" style="13"/>
+    <col min="211" max="211" customWidth="1" width="17.0" style="13"/>
+    <col min="212" max="212" customWidth="1" width="17.0" style="13"/>
+    <col min="213" max="213" customWidth="1" width="17.0" style="13"/>
+    <col min="214" max="214" customWidth="1" width="17.0" style="13"/>
+    <col min="215" max="215" customWidth="1" width="17.0" style="13"/>
+    <col min="216" max="216" customWidth="1" width="17.0" style="13"/>
+    <col min="217" max="217" customWidth="1" width="17.0" style="13"/>
+    <col min="218" max="218" customWidth="1" width="17.0" style="13"/>
+    <col min="219" max="219" customWidth="1" width="17.0" style="13"/>
+    <col min="220" max="220" customWidth="1" width="17.0" style="13"/>
+    <col min="221" max="221" customWidth="1" width="17.0" style="13"/>
+    <col min="222" max="222" customWidth="1" width="17.0" style="13"/>
+    <col min="223" max="223" customWidth="1" width="17.0" style="13"/>
+    <col min="224" max="224" customWidth="1" width="17.0" style="13"/>
+    <col min="225" max="225" customWidth="1" width="17.0" style="13"/>
+    <col min="226" max="226" customWidth="1" width="17.0" style="13"/>
+    <col min="227" max="227" customWidth="1" width="17.0" style="13"/>
+    <col min="228" max="228" customWidth="1" width="17.0" style="13"/>
+    <col min="229" max="229" customWidth="1" width="17.0" style="13"/>
+    <col min="230" max="230" customWidth="1" width="17.0" style="13"/>
+    <col min="231" max="231" customWidth="1" width="17.0" style="13"/>
+    <col min="232" max="232" customWidth="1" width="17.0" style="13"/>
+    <col min="233" max="233" customWidth="1" width="17.0" style="13"/>
+    <col min="234" max="234" customWidth="1" width="17.0" style="13"/>
+    <col min="235" max="235" customWidth="1" width="17.0" style="13"/>
+    <col min="236" max="236" customWidth="1" width="17.0" style="13"/>
+    <col min="237" max="237" customWidth="1" width="17.0" style="13"/>
+    <col min="238" max="238" customWidth="1" width="17.0" style="13"/>
+    <col min="239" max="239" customWidth="1" width="17.0" style="13"/>
+    <col min="240" max="240" customWidth="1" width="17.0" style="13"/>
+    <col min="241" max="241" customWidth="1" width="17.0" style="13"/>
+    <col min="242" max="242" customWidth="1" width="17.0" style="13"/>
+    <col min="243" max="243" customWidth="1" width="17.0" style="13"/>
+    <col min="244" max="244" customWidth="1" width="17.0" style="13"/>
+    <col min="245" max="245" customWidth="1" width="17.0" style="13"/>
+    <col min="246" max="246" customWidth="1" width="17.0" style="13"/>
+    <col min="247" max="247" customWidth="1" width="17.0" style="13"/>
+    <col min="248" max="248" customWidth="1" width="17.0" style="13"/>
+    <col min="249" max="249" customWidth="1" width="17.0" style="13"/>
+    <col min="250" max="250" customWidth="1" width="17.0" style="13"/>
+    <col min="251" max="251" customWidth="1" width="17.0" style="13"/>
+    <col min="252" max="252" customWidth="1" width="17.0" style="13"/>
+    <col min="253" max="253" customWidth="1" width="17.0" style="13"/>
+    <col min="254" max="254" customWidth="1" width="17.0" style="13"/>
+    <col min="255" max="255" customWidth="1" width="17.0" style="13"/>
+    <col min="256" max="256" customWidth="1" width="17.0" style="13"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="8:8" s="2" ht="15.0" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="8:8">
+      <c r="A2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="8:8">
+      <c r="A3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="28.5">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="8:8" ht="28.5">
+      <c r="A4" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="8:8">
+      <c r="A5" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="8:8">
+      <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.5">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="8:8" ht="28.5">
+      <c r="A8" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="8:8">
+      <c r="A9" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="8:8">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.5">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="8:8" ht="28.5">
+      <c r="A11" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="8:8" ht="28.5">
+      <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="A13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="8:8">
+      <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="A15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="A17" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="8:8">
+      <c r="A18" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="8:8">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="A20" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="8:8" ht="28.5">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="A22" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.5">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="8:8" ht="28.5">
+      <c r="A23" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="8:8" ht="28.5">
+      <c r="A24" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="8:8">
+      <c r="A25" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="14" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>